--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="16065" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LUNG" sheetId="1" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1525,9 +1525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1587,6 +1587,9 @@
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="C3">
+        <v>885902</v>
+      </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
@@ -1721,6 +1724,9 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="C10">
+        <v>2898</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1787,9 +1793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1828,6 +1834,9 @@
       <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C2" s="2">
+        <v>873868</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -1863,6 +1872,9 @@
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="C4" s="2">
+        <v>79693</v>
+      </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -1900,6 +1912,9 @@
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C6" s="2">
+        <v>706565</v>
+      </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1969,6 +1984,9 @@
       <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="C10" s="2">
+        <v>5235</v>
+      </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
@@ -1985,6 +2003,9 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="C11" s="2">
+        <v>689684</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -2031,9 +2052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2071,6 +2092,9 @@
       <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="C2" s="2">
+        <v>897311</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -2185,6 +2209,9 @@
       </c>
       <c r="B8" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5003</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2251,9 +2278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2291,6 +2318,9 @@
       <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="C2">
+        <v>4628</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -2308,6 +2338,9 @@
       <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="C3">
+        <v>4778</v>
+      </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
@@ -2325,6 +2358,9 @@
       <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="C4">
+        <v>4645</v>
+      </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
@@ -2342,6 +2378,9 @@
       <c r="B5" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C5">
+        <v>4762</v>
+      </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -2359,6 +2398,9 @@
       <c r="B6" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="C6">
+        <v>4814</v>
+      </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
@@ -2376,6 +2418,9 @@
       <c r="B7" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="C7">
+        <v>4831</v>
+      </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
@@ -2393,6 +2438,9 @@
       <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="C8">
+        <v>4912</v>
+      </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
@@ -2409,6 +2457,9 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="C9">
+        <v>79028</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -2680,6 +2731,9 @@
       <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="C24">
+        <v>2714</v>
+      </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
@@ -2697,6 +2751,9 @@
       <c r="B25" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="C25">
+        <v>3705</v>
+      </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
@@ -2714,6 +2771,9 @@
       <c r="B26" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C26">
+        <v>2774</v>
+      </c>
       <c r="D26" t="s">
         <v>33</v>
       </c>
@@ -2731,6 +2791,9 @@
       <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="C27">
+        <v>3152</v>
+      </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
@@ -2748,6 +2811,9 @@
       <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="C28">
+        <v>2584</v>
+      </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
@@ -2765,6 +2831,9 @@
       <c r="B29" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="C29">
+        <v>2869</v>
+      </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
@@ -2782,6 +2851,9 @@
       <c r="B30" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="C30">
+        <v>871606</v>
+      </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
@@ -2798,6 +2870,9 @@
       </c>
       <c r="B31" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="C31">
+        <v>210432</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,14 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="16065" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="13620" tabRatio="655"/>
   </bookViews>
   <sheets>
-    <sheet name="LUNG" sheetId="1" r:id="rId1"/>
-    <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId2"/>
-    <sheet name="ANAL" sheetId="3" r:id="rId3"/>
-    <sheet name="GI CARCINOID TUMOR" sheetId="4" r:id="rId4"/>
-    <sheet name="LEUKEMIA" sheetId="5" r:id="rId5"/>
+    <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
+    <sheet name="LIVER &amp; BILE DUCT" sheetId="7" r:id="rId2"/>
+    <sheet name="BLADDER" sheetId="8" r:id="rId3"/>
+    <sheet name="BONE" sheetId="9" r:id="rId4"/>
+    <sheet name="BREAST" sheetId="10" r:id="rId5"/>
+    <sheet name="LUNG" sheetId="1" r:id="rId6"/>
+    <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId7"/>
+    <sheet name="ANAL" sheetId="3" r:id="rId8"/>
+    <sheet name="GI CARCINOID TUMOR" sheetId="4" r:id="rId9"/>
+    <sheet name="LEUKEMIA" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="281">
   <si>
     <t>Title</t>
   </si>
@@ -440,6 +445,432 @@
   </si>
   <si>
     <t>http://seer.cancer.gov/statfacts/html/leuks.html</t>
+  </si>
+  <si>
+    <t>Adult Brain Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adultbrain/Patient</t>
+  </si>
+  <si>
+    <t>Primary CNS Lymphoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/primary-CNS-lymphoma/Patient</t>
+  </si>
+  <si>
+    <t>Childhood Brain and Spinal Cord Tumors Treatment Overview</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childbrain/Patient</t>
+  </si>
+  <si>
+    <t>Childhood Astrocytomas Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-astrocytomas/patient</t>
+  </si>
+  <si>
+    <t>Childhood Brain Stem Giloma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-brain-stem-glioma/Patient</t>
+  </si>
+  <si>
+    <t>Childhood Central Nervous System Atypical Teratoid/Rhabdoid Tumor Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-CNS-ATRT/patient</t>
+  </si>
+  <si>
+    <t>Childhood Central Nervous System Embryonal Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childCNSembryonal/patient</t>
+  </si>
+  <si>
+    <t>Childhood Central Nervous System Germ Cell Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childCNS-germ-cell/patient</t>
+  </si>
+  <si>
+    <t>Childhood Craniopharyngioma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-cranio/patient</t>
+  </si>
+  <si>
+    <t>Childhood Ependymoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childependymoma/Patient</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Brain Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/braintumors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Information </t>
+  </si>
+  <si>
+    <t>Neuro-Oncology Branch</t>
+  </si>
+  <si>
+    <t>http://home.ccr.cancer.gov/nob/</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Adult Brain Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6493471&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Brain Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=9925803&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Spinal Cord Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13760641&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Brain Stem Giloma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6578364&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Central Nervous System Atypical Teratoid/Rhabdoid Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6422130&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Central Nervous System Embryonal Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=9999716&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Ependymoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10230908&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Medulloblastoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6194580&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Pineoblastoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6471964&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Supratentorial Primitive Neuroectodermal Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13760660&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Craniopharyngioma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=9929120&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/brain.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adultbrain/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/primary-CNS-lymphoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childbrain/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-astrocytomas/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-brain-stem-glioma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-CNS-ATRT/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childCNSembryonal/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childCNS-germ-cell/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-cranio/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childependymoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Extrahepatic Bile Duct Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/bileduct/Patient</t>
+  </si>
+  <si>
+    <t>Adult Primary Liver Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adult-primary-liver/Patient</t>
+  </si>
+  <si>
+    <t>Childhood Liver Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childliver/Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical Trials to Treat Extrahepatic Bile Duct Cancer </t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8758491&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Liver Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/livercancer</t>
+  </si>
+  <si>
+    <t>Cryosurgery in Cancer Treatment: Questions and Answers</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/cryosurgery</t>
+  </si>
+  <si>
+    <t>Liver (Hepatocellular) Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/hepatocellular/Patient</t>
+  </si>
+  <si>
+    <t>Liver (Hepatocellular) Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/hepatocellular/Patient</t>
+  </si>
+  <si>
+    <t>Understanding Laboratory Tests</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/detection/laboratory-tests (WILL HAVE A DIFFERENT NVCG URL THOUGH)</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/livibd.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/bileduct/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adult-primary-liver/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childliver/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/hepatocellular/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/hepatocellular/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Bladder Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/bladder/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/Patient/page6#Section_126</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Bladder Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6190190&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Bladder Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/bladdercancer</t>
+  </si>
+  <si>
+    <t>Bladder and Other Urothelial Cancers Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/bladder/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/detection/laboratory-tests</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/urinb.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/bladder/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/bladder/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Ewing Sarcoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ewings/Patient</t>
+  </si>
+  <si>
+    <t>Osteosarcoma and Malignant Fibrous Histiocytoma of Bone Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/osteosarcoma/Patient</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Ewing Sarcoma Family of Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8117209&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Osteosarcoma and Malignant Fibrous Histiocytoma of Bone</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8107561&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Bone Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/bonecancer</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/bones.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ewings/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/osteosarcoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Breast Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/breast/Patient</t>
+  </si>
+  <si>
+    <t>Male Breast Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/malebreast/Patient</t>
+  </si>
+  <si>
+    <t>Breast Cancer Treatment and Pregnancy</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/breast-cancer-and-pregnancy/Patient</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/breastcancer</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6211756&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Surgery Choices for Women with DCIS or Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/treatment/breast/surgerychoices</t>
+  </si>
+  <si>
+    <t>Sentinel Lymph Node Biopsy</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/detection/sentinel-node-biopsy</t>
+  </si>
+  <si>
+    <t>Adjuvant and Neoadjuvant Therapy for Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/adjuvant-breast</t>
+  </si>
+  <si>
+    <t>Hormone Therapy for Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/hormone-therapy-breast</t>
+  </si>
+  <si>
+    <t>Breast Reconstruction After Mastectomy</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/breast-reconstruction</t>
+  </si>
+  <si>
+    <t>Breast Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/breast/Patient</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6118383&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Breast Cancer Risk Assessment Tool</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/bcrisktool/</t>
+  </si>
+  <si>
+    <t>Breast Cancer Risk in American Women</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/detection/probability-breast-cancer</t>
+  </si>
+  <si>
+    <t>Surgery to Reduce the Risk of Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/risk-reducing-surgery</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/breast/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/malebreast/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/breast-cancer-and-pregnancy/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/breast/HealthProfessional</t>
   </si>
 </sst>
 </file>
@@ -589,7 +1020,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,6 +1039,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -1024,11 +1459,2821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25">
+        <v>6158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <v>899999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>6145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <v>1654</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>1541</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>4628</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>4778</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>4645</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>4762</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>4814</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>4831</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <v>4912</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9">
+        <v>79028</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>6158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>899999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>6145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24">
+        <v>2714</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>3705</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>2774</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27">
+        <v>3152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28">
+        <v>2584</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29">
+        <v>2869</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <v>871606</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31">
+        <v>210432</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>1654</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>1541</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="59.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6835</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>6158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>899999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>6145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>1654</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>1541</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6835</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>6158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>899999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>1654</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="73.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>6158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>899999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>6145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>1654</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>1541</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="66.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6835</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>899999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1521,7 +4766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1789,7 +5034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2048,7 +5293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -2272,665 +5517,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2">
-        <v>4628</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3">
-        <v>4778</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>4645</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5">
-        <v>4762</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6">
-        <v>4814</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7">
-        <v>4831</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8">
-        <v>4912</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9">
-        <v>79028</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20">
-        <v>6158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21">
-        <v>899999</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22">
-        <v>6145</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24">
-        <v>2714</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25">
-        <v>3705</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26">
-        <v>2774</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27">
-        <v>3152</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28">
-        <v>2584</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29">
-        <v>2869</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30">
-        <v>871606</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31">
-        <v>210432</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32">
-        <v>1654</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
-        <v>1541</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="13620" tabRatio="655"/>
+    <workbookView xWindow="0" yWindow="-500" windowWidth="28860" windowHeight="16540" tabRatio="655" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="281">
   <si>
     <t>Title</t>
   </si>
@@ -1461,22 +1461,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.5">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>141</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>145</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.5">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="2" t="s">
         <v>153</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>155</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>162</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>166</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="2" t="s">
         <v>170</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="2" t="s">
         <v>174</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="2" t="s">
         <v>178</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.5">
       <c r="A23" s="2" t="s">
         <v>182</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5">
       <c r="A24" s="2" t="s">
         <v>184</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.5">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31.5">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="6" t="s">
         <v>85</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="2" t="s">
         <v>139</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="2" t="s">
         <v>141</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="31.5">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" s="2" t="s">
         <v>145</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="31.5">
       <c r="A33" s="2" t="s">
         <v>147</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="31.5">
       <c r="A34" s="2" t="s">
         <v>149</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="31.5">
       <c r="A35" s="2" t="s">
         <v>151</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="31.5">
       <c r="A36" s="2" t="s">
         <v>153</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="31.5">
       <c r="A37" s="2" t="s">
         <v>155</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="31.5">
       <c r="A38" s="2" t="s">
         <v>157</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="31.5">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="31.5">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2184,6 +2184,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2191,20 +2196,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +2229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2264,7 +2269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -2284,7 +2289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -2344,7 +2349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -2364,7 +2369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
@@ -2402,7 +2407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
@@ -2492,7 +2497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
@@ -2637,7 +2642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2852,22 +2857,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.375" customWidth="1"/>
-    <col min="2" max="2" width="59.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +2892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2956,7 +2961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3012,7 +3017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
@@ -3030,7 +3035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
@@ -3050,7 +3055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="6" t="s">
         <v>211</v>
       </c>
@@ -3087,7 +3092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="6" t="s">
         <v>213</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>215</v>
@@ -3137,7 +3142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -3171,7 +3176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -3188,7 +3193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3225,7 +3230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="6" t="s">
         <v>211</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3265,6 +3270,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3272,23 +3282,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,7 +3318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
@@ -3325,7 +3335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3342,7 +3352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>224</v>
       </c>
@@ -3360,7 +3370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -3377,7 +3387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
@@ -3417,7 +3427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
@@ -3437,7 +3447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="10" t="s">
         <v>228</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>213</v>
       </c>
@@ -3471,7 +3481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>231</v>
       </c>
@@ -3483,7 +3493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>221</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -3517,7 +3527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3537,7 +3547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="10" t="s">
         <v>228</v>
       </c>
@@ -3557,6 +3567,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3564,22 +3579,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="73.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3599,7 +3614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -3633,7 +3648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -3651,7 +3666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -3669,7 +3684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -3686,7 +3701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
@@ -3706,7 +3721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
@@ -3726,7 +3741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
@@ -3746,7 +3761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="6" t="s">
         <v>213</v>
       </c>
@@ -3763,7 +3778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>244</v>
       </c>
@@ -3775,7 +3790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -3792,7 +3807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -3809,7 +3824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3829,7 +3844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3852,29 +3867,34 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="66.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -3911,7 +3931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -3928,7 +3948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -3945,187 +3965,186 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>6835</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>265</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>267</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
@@ -4138,14 +4157,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>272</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" t="s">
         <v>29</v>
       </c>
@@ -4156,16 +4175,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>899999</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" t="s">
         <v>29</v>
       </c>
@@ -4176,12 +4193,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>276</v>
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>899999</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -4193,77 +4213,116 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" t="s">
         <v>249</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" t="s">
         <v>251</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>50</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>43</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F37" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4271,24 +4330,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4367,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -4328,7 +4387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -4348,7 +4407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4371,7 +4430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4391,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -4409,7 +4468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4447,7 +4506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4467,7 +4526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -4487,7 +4546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4505,7 +4564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4523,7 +4582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4541,7 +4600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4559,7 +4618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4579,7 +4638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -4599,7 +4658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -4617,7 +4676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4635,7 +4694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -4655,7 +4714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -4675,7 +4734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4695,7 +4754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4715,7 +4774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -4735,7 +4794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -4770,22 +4829,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +4864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4825,7 +4884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4845,7 +4904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -4863,7 +4922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4883,7 +4942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -4903,7 +4962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -4923,7 +4982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -4943,7 +5002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -4963,7 +5022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -4983,7 +5042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5003,7 +5062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5038,21 +5097,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5072,7 +5131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -5092,7 +5151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -5110,7 +5169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -5130,7 +5189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5150,7 +5209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -5170,7 +5229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -5190,7 +5249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -5210,7 +5269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
@@ -5222,7 +5281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -5242,7 +5301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -5262,7 +5321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5297,20 +5356,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="6" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5330,7 +5389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -5350,7 +5409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5368,7 +5427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5388,7 +5447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -5408,7 +5467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -5428,7 +5487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>85</v>
       </c>
@@ -5448,7 +5507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -5468,7 +5527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -5488,7 +5547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>85</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-500" windowWidth="28860" windowHeight="16540" tabRatio="655" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-495" windowWidth="28860" windowHeight="16545" tabRatio="655" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -909,7 +909,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,6 +928,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1020,7 +1026,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,6 +1048,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,22 +1471,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,13 +1506,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="C2">
+        <v>1040</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -1513,13 +1526,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="C3">
+        <v>5102</v>
+      </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
@@ -1530,13 +1546,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C4">
+        <v>4722</v>
+      </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
@@ -1547,13 +1566,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C5">
+        <v>6395</v>
+      </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -1564,13 +1586,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C6">
+        <v>4266</v>
+      </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
@@ -1581,13 +1606,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="C7">
+        <v>6413</v>
+      </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
@@ -1598,13 +1626,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="C8">
+        <v>6311</v>
+      </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
@@ -1615,13 +1646,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="C9">
+        <v>212044</v>
+      </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
@@ -1632,13 +1666,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="C10">
+        <v>4426</v>
+      </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
@@ -1649,13 +1686,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="C11">
+        <v>4426</v>
+      </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
@@ -1666,13 +1706,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="C12">
+        <v>65187</v>
+      </c>
       <c r="D12" t="s">
         <v>161</v>
       </c>
@@ -1683,7 +1726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>162</v>
       </c>
@@ -1701,7 +1744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
@@ -1719,7 +1762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>166</v>
       </c>
@@ -1737,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -1755,7 +1798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>170</v>
       </c>
@@ -1773,7 +1816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
@@ -1791,7 +1834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>174</v>
       </c>
@@ -1809,7 +1852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
@@ -1827,7 +1870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5">
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>178</v>
       </c>
@@ -1845,7 +1888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -1863,7 +1906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>182</v>
       </c>
@@ -1881,7 +1924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>184</v>
       </c>
@@ -1899,7 +1942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
@@ -1919,7 +1962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.5">
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1939,7 +1982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>85</v>
       </c>
@@ -1959,7 +2002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
@@ -1971,13 +2014,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.5">
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="C29">
+        <v>3240</v>
+      </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
@@ -1988,13 +2034,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="C30">
+        <v>1666</v>
+      </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
@@ -2005,13 +2054,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5">
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="C31">
+        <v>997</v>
+      </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
@@ -2022,13 +2074,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="C32">
+        <v>6590</v>
+      </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -2039,13 +2094,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5">
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="C33">
+        <v>1601</v>
+      </c>
       <c r="D33" t="s">
         <v>33</v>
       </c>
@@ -2056,13 +2114,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5">
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C34">
+        <v>6463</v>
+      </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
@@ -2073,13 +2134,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="31.5">
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="C35">
+        <v>6293</v>
+      </c>
       <c r="D35" t="s">
         <v>33</v>
       </c>
@@ -2090,13 +2154,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.5">
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="C36">
+        <v>145267</v>
+      </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
@@ -2107,13 +2174,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="31.5">
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="C37">
+        <v>6476</v>
+      </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
@@ -2124,13 +2194,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5">
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="C38">
+        <v>2451</v>
+      </c>
       <c r="D38" t="s">
         <v>33</v>
       </c>
@@ -2141,7 +2214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.5">
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.5">
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2196,20 +2269,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -2249,7 +2322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2269,7 +2342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -2289,7 +2362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2309,7 +2382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -2329,7 +2402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -2349,7 +2422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -2369,7 +2442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -2389,7 +2462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
@@ -2407,7 +2480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -2425,7 +2498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -2443,7 +2516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -2461,7 +2534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -2479,7 +2552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
@@ -2497,7 +2570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -2515,7 +2588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -2533,7 +2606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -2551,7 +2624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -2569,7 +2642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
@@ -2589,7 +2662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -2609,7 +2682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
@@ -2629,7 +2702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
@@ -2642,7 +2715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -2662,7 +2735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -2682,7 +2755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -2702,7 +2775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -2722,7 +2795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -2742,7 +2815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -2762,7 +2835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -2782,7 +2855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
@@ -2802,7 +2875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2822,7 +2895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2860,19 +2933,19 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="59.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2892,13 +2965,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="C2" s="2">
+        <v>4897</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -2909,13 +2985,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="C3" s="2">
+        <v>4564</v>
+      </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
@@ -2926,13 +3005,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="C4" s="2">
+        <v>5220</v>
+      </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
@@ -2943,7 +3025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2961,14 +3043,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="2">
+        <v>102660</v>
+      </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -2979,14 +3063,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>207</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="2">
+        <v>15469</v>
+      </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
@@ -2997,7 +3083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3017,14 +3103,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>5913</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
@@ -3035,7 +3123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
@@ -3055,7 +3143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -3075,13 +3163,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="C12" s="2">
+        <v>5913</v>
+      </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
@@ -3092,14 +3183,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>6145</v>
       </c>
       <c r="D13" t="s">
@@ -3112,13 +3203,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="C14" s="2">
+        <v>13674</v>
+      </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -3129,7 +3223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>215</v>
@@ -3142,13 +3236,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="C16" s="2">
+        <v>3341</v>
+      </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
@@ -3159,13 +3256,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="C17" s="2">
+        <v>3357</v>
+      </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
@@ -3176,13 +3276,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="C18" s="2">
+        <v>2368</v>
+      </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
@@ -3193,13 +3296,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="C19" s="2">
+        <v>5901</v>
+      </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
@@ -3210,14 +3316,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1654</v>
       </c>
       <c r="D20" t="s">
@@ -3230,13 +3336,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5">
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="C21" s="2">
+        <v>2419</v>
+      </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
@@ -3247,14 +3356,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1541</v>
       </c>
       <c r="D22" t="s">
@@ -3285,20 +3394,20 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3318,13 +3427,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="C2" s="2">
+        <v>1098</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -3335,13 +3447,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="C3" s="2">
+        <v>2898</v>
+      </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
@@ -3352,7 +3467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>224</v>
       </c>
@@ -3370,13 +3485,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="C5" s="2">
+        <v>65189</v>
+      </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
@@ -3387,7 +3505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3407,7 +3525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
@@ -3427,7 +3545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
@@ -3447,13 +3565,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>228</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="C9">
+        <v>5544</v>
+      </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
@@ -3464,13 +3585,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="C10">
+        <v>13674</v>
+      </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -3481,7 +3605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>231</v>
       </c>
@@ -3493,13 +3617,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="C12">
+        <v>3394</v>
+      </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
@@ -3510,13 +3637,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="C13">
+        <v>2840</v>
+      </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -3527,7 +3657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3547,12 +3677,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>233</v>
+      </c>
+      <c r="C15">
+        <v>2856</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -3582,19 +3715,19 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="73.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="73.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3614,13 +3747,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="C2">
+        <v>5824</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -3631,13 +3767,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="C3">
+        <v>4065</v>
+      </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
@@ -3648,7 +3787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -3666,7 +3805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -3684,13 +3823,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="C6">
+        <v>81826</v>
+      </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +3843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
@@ -3721,7 +3863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
@@ -3741,7 +3883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
@@ -3761,13 +3903,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="C10">
+        <v>13674</v>
+      </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -3778,7 +3923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>244</v>
       </c>
@@ -3790,13 +3935,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>234</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="C12">
+        <v>2434</v>
+      </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
@@ -3807,13 +3955,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>236</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="C13">
+        <v>1055</v>
+      </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
@@ -3824,7 +3975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3844,7 +3995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3877,24 +4028,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3914,13 +4065,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="C2">
+        <v>4127</v>
+      </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
@@ -3931,13 +4085,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="C3">
+        <v>4393</v>
+      </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
@@ -3948,13 +4105,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="C4">
+        <v>4411</v>
+      </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
@@ -3965,30 +4125,34 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>253</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="C6">
+        <v>65188</v>
+      </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -3999,7 +4163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -4017,13 +4181,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="C8">
+        <v>461886</v>
+      </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
@@ -4034,13 +4201,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="C9">
+        <v>15646</v>
+      </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
@@ -4051,13 +4221,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>261</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="C10">
+        <v>13426</v>
+      </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -4068,13 +4241,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="C11">
+        <v>283901</v>
+      </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -4085,7 +4261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -4105,13 +4281,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>265</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="C13">
+        <v>479707</v>
+      </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -4122,13 +4301,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>267</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="C14">
+        <v>4694</v>
+      </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
@@ -4139,7 +4321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>269</v>
       </c>
@@ -4157,7 +4339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>271</v>
       </c>
@@ -4175,14 +4357,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>273</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9">
+        <v>13803</v>
+      </c>
       <c r="D17" t="s">
         <v>29</v>
       </c>
@@ -4193,7 +4377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -4213,13 +4397,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>275</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="C19">
+        <v>14381</v>
+      </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -4230,88 +4417,93 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" t="s">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30">
-      <c r="A35" t="s">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" t="s">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30">
-      <c r="A37" t="s">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B25" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F25" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4332,22 +4524,22 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4367,7 +4559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -4387,7 +4579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -4407,7 +4599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4430,7 +4622,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4450,7 +4642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -4468,7 +4660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4486,7 +4678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4506,7 +4698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4526,7 +4718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -4546,7 +4738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4564,7 +4756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4582,7 +4774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4600,7 +4792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4618,7 +4810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +4830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -4658,7 +4850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -4676,7 +4868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4694,7 +4886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -4714,7 +4906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +4926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4754,7 +4946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4774,7 +4966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -4794,7 +4986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -4831,20 +5023,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4864,7 +5056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4884,7 +5076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4904,7 +5096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -4922,7 +5114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4942,7 +5134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -4962,7 +5154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -4982,7 +5174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -5002,7 +5194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -5022,7 +5214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -5042,7 +5234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5062,7 +5254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5102,16 +5294,16 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5131,7 +5323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -5151,7 +5343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -5169,7 +5361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -5189,7 +5381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -5229,7 +5421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -5249,7 +5441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -5269,7 +5461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
@@ -5281,7 +5473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -5301,7 +5493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -5321,7 +5513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5361,15 +5553,15 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="6" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="6" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5389,7 +5581,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -5409,7 +5601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5427,7 +5619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5447,7 +5639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -5467,7 +5659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -5487,7 +5679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>85</v>
       </c>
@@ -5507,7 +5699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -5527,7 +5719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -5547,7 +5739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-495" windowWidth="28860" windowHeight="16545" tabRatio="655" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="655" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="ANAL" sheetId="3" r:id="rId8"/>
     <sheet name="GI CARCINOID TUMOR" sheetId="4" r:id="rId9"/>
     <sheet name="LEUKEMIA" sheetId="5" r:id="rId10"/>
+    <sheet name="CARCINOMA OF UNKNOWN PRIMARY" sheetId="11" r:id="rId11"/>
+    <sheet name="CERVICAL" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="334">
   <si>
     <t>Title</t>
   </si>
@@ -871,6 +873,165 @@
   </si>
   <si>
     <t>http://www.cancer.gov/cancertopics/pdq/prevention/breast/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Risk/reproductive-history</t>
+  </si>
+  <si>
+    <t>Reproductive History and Breast Cancer Risk</t>
+  </si>
+  <si>
+    <t>BRCA1and BRCA2: Cancer Risk and Genetic Testing</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Risk/BRCA</t>
+  </si>
+  <si>
+    <t>Genetics of Breast and Gynecologic Cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDQ Genetics Information </t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/genetics/breast-and-ovarian/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/breast/Patient</t>
+  </si>
+  <si>
+    <t>Breast Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/breast/healthprofessional</t>
+  </si>
+  <si>
+    <t>Mammograms</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/detection/mammograms</t>
+  </si>
+  <si>
+    <t>Find an FDA Certified Mammogram Facility</t>
+  </si>
+  <si>
+    <t>http://www.accessdata.fda.gov/scripts/cdrh/cfdocs/cfMQSA/mqsa.cfm</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6175345&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Screen for Breast Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/types/breast/beyond-cancer-video</t>
+  </si>
+  <si>
+    <t>Moving Beyond Breast Cancer Videos</t>
+  </si>
+  <si>
+    <t>General Resources on Coping</t>
+  </si>
+  <si>
+    <t>Coping</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/breast.html</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/lungb.html</t>
+  </si>
+  <si>
+    <t>Carcinoma of Unknown Primary Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unknownprimary/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unknownprimary/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Carcinoma of Unknown Primary</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8167069&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/cervical/Patient</t>
+  </si>
+  <si>
+    <t>Cervical Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/cervical/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8693745&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Cervical Cancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Cervical Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/cervicalcancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/cervical/Patient</t>
+  </si>
+  <si>
+    <t>Cervical Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/cervical/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6197728&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Cervical Cancer</t>
+  </si>
+  <si>
+    <t>Infectious Agents</t>
+  </si>
+  <si>
+    <t>DOES NOT EXIST YET</t>
+  </si>
+  <si>
+    <t>Cervical Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/cervical/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/cervical/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Understanding Cervical Changes: A Health Guide for Women</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/understanding-cervical-changes</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/detection/Pap-HPV-testing</t>
+  </si>
+  <si>
+    <t>Pap and HPV Testing</t>
+  </si>
+  <si>
+    <t>National Breast and Cervical Cancer Early Detection Program (NBCCEDP)</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Screen for Cervical Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6124856&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/cervix.html</t>
   </si>
 </sst>
 </file>
@@ -909,7 +1070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,6 +1095,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -944,7 +1111,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1025,8 +1192,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,8 +1267,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="126">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1118,6 +1336,29 @@
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1135,6 +1376,29 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,22 +1735,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.5">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
@@ -1526,7 +1790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>141</v>
       </c>
@@ -1546,7 +1810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
@@ -1566,7 +1830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>145</v>
       </c>
@@ -1586,7 +1850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
@@ -1606,7 +1870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
@@ -1626,7 +1890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.5">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -1646,7 +1910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="2" t="s">
         <v>153</v>
       </c>
@@ -1666,7 +1930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>155</v>
       </c>
@@ -1686,7 +1950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
@@ -1706,7 +1970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
@@ -1726,7 +1990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>162</v>
       </c>
@@ -1744,7 +2008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
@@ -1762,7 +2026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>166</v>
       </c>
@@ -1780,7 +2044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -1798,7 +2062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="2" t="s">
         <v>170</v>
       </c>
@@ -1816,7 +2080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
@@ -1834,7 +2098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="2" t="s">
         <v>174</v>
       </c>
@@ -1852,7 +2116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
@@ -1870,7 +2134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="2" t="s">
         <v>178</v>
       </c>
@@ -1888,7 +2152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -1906,7 +2170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.5">
       <c r="A23" s="2" t="s">
         <v>182</v>
       </c>
@@ -1924,7 +2188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5">
       <c r="A24" s="2" t="s">
         <v>184</v>
       </c>
@@ -1942,7 +2206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.5">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
@@ -1962,7 +2226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31.5">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1982,7 +2246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="6" t="s">
         <v>85</v>
       </c>
@@ -2002,7 +2266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
@@ -2014,7 +2278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="2" t="s">
         <v>139</v>
       </c>
@@ -2034,7 +2298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="2" t="s">
         <v>141</v>
       </c>
@@ -2054,7 +2318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="31.5">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
@@ -2074,7 +2338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" s="2" t="s">
         <v>145</v>
       </c>
@@ -2094,7 +2358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="31.5">
       <c r="A33" s="2" t="s">
         <v>147</v>
       </c>
@@ -2114,7 +2378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="31.5">
       <c r="A34" s="2" t="s">
         <v>149</v>
       </c>
@@ -2134,7 +2398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="31.5">
       <c r="A35" s="2" t="s">
         <v>151</v>
       </c>
@@ -2154,7 +2418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="31.5">
       <c r="A36" s="2" t="s">
         <v>153</v>
       </c>
@@ -2174,7 +2438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="31.5">
       <c r="A37" s="2" t="s">
         <v>155</v>
       </c>
@@ -2194,7 +2458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="31.5">
       <c r="A38" s="2" t="s">
         <v>157</v>
       </c>
@@ -2214,7 +2478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="31.5">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2234,7 +2498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="31.5">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2269,20 +2533,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C31"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -2322,7 +2586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2342,7 +2606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -2362,7 +2626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2382,7 +2646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -2402,7 +2666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -2422,7 +2686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -2442,7 +2706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -2462,7 +2726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
@@ -2480,7 +2744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -2498,7 +2762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -2516,7 +2780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -2534,7 +2798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -2552,7 +2816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
@@ -2570,7 +2834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -2588,7 +2852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -2606,7 +2870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -2624,7 +2888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -2642,7 +2906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
@@ -2662,7 +2926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -2682,7 +2946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
@@ -2702,7 +2966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
@@ -2715,7 +2979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -2735,7 +2999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -2755,7 +3019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -2775,7 +3039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -2795,7 +3059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -2815,7 +3079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -2835,7 +3099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -2855,7 +3119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
@@ -2875,7 +3139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2895,7 +3159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2912,6 +3176,634 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>6158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>899999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>6145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>1654</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>1541</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6835</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>899999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2936,16 +3828,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.375" customWidth="1"/>
-    <col min="2" max="2" width="59.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +3857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -2985,7 +3877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3005,7 +3897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3025,7 +3917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -3043,7 +3935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -3063,7 +3955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -3083,7 +3975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3103,7 +3995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
@@ -3123,7 +4015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
@@ -3143,7 +4035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -3163,7 +4055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="6" t="s">
         <v>211</v>
       </c>
@@ -3183,7 +4075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
@@ -3203,7 +4095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="6" t="s">
         <v>213</v>
       </c>
@@ -3223,7 +4115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>215</v>
@@ -3236,7 +4128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -3256,7 +4148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -3276,7 +4168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -3296,7 +4188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -3316,7 +4208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3336,7 +4228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="6" t="s">
         <v>211</v>
       </c>
@@ -3356,7 +4248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3397,17 +4289,17 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,7 +4319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
@@ -3447,7 +4339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3467,7 +4359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>224</v>
       </c>
@@ -3485,7 +4377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -3505,7 +4397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3525,7 +4417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
@@ -3545,7 +4437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
@@ -3565,7 +4457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="10" t="s">
         <v>228</v>
       </c>
@@ -3585,7 +4477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>213</v>
       </c>
@@ -3605,7 +4497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>231</v>
       </c>
@@ -3617,7 +4509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>221</v>
       </c>
@@ -3637,7 +4529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -3657,7 +4549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3677,7 +4569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="10" t="s">
         <v>228</v>
       </c>
@@ -3718,16 +4610,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="73.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3747,7 +4639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -3767,7 +4659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -3787,7 +4679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -3805,7 +4697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -3823,7 +4715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -3843,7 +4735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
         <v>63</v>
       </c>
@@ -3863,7 +4755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
@@ -3883,7 +4775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
@@ -3903,7 +4795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="6" t="s">
         <v>213</v>
       </c>
@@ -3923,7 +4815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>244</v>
       </c>
@@ -3935,7 +4827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -3955,7 +4847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -3975,7 +4867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3995,7 +4887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -4028,24 +4920,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4065,7 +4957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -4085,7 +4977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -4105,7 +4997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -4125,7 +5017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -4143,7 +5035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>253</v>
       </c>
@@ -4163,7 +5055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -4181,7 +5073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -4201,7 +5093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -4221,7 +5113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -4241,7 +5133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -4261,7 +5153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -4281,7 +5173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -4301,7 +5193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -4321,7 +5213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" t="s">
         <v>269</v>
       </c>
@@ -4339,7 +5231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>271</v>
       </c>
@@ -4357,7 +5249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" t="s">
         <v>273</v>
       </c>
@@ -4377,7 +5269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -4397,7 +5289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -4417,93 +5309,266 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="29" spans="1:6" ht="31.5">
+      <c r="A29" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="30" spans="1:6" ht="31.5">
+      <c r="A30" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="31" spans="1:6" ht="31.5">
+      <c r="A31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="32" spans="1:6" ht="31.5">
+      <c r="A32" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F32" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4520,26 +5585,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4559,7 +5624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -4579,7 +5644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -4599,7 +5664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4622,7 +5687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4642,7 +5707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -4660,7 +5725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4678,7 +5743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4698,7 +5763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4718,7 +5783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -4738,7 +5803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4756,7 +5821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4774,7 +5839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -4792,7 +5857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -4810,7 +5875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4830,7 +5895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -4850,7 +5915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -4868,7 +5933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4886,7 +5951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -4906,55 +5971,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:6" ht="30">
+      <c r="B20" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1">
+      <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="8">
         <v>2840</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>3853</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4031</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -4966,43 +6023,63 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
-        <v>2190</v>
+        <v>4031</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2190</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>2301</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5023,20 +6100,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5056,7 +6133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5076,7 +6153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5096,7 +6173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -5114,7 +6191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5134,7 +6211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -5154,7 +6231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -5174,7 +6251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -5194,7 +6271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -5214,7 +6291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -5234,7 +6311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5254,7 +6331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5294,16 +6371,16 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5323,7 +6400,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -5343,7 +6420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -5361,7 +6438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -5381,7 +6458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5401,7 +6478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -5421,7 +6498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -5441,7 +6518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -5461,7 +6538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
@@ -5473,7 +6550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -5493,7 +6570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -5513,7 +6590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5546,22 +6623,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="6" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +6658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -5601,73 +6678,71 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>6835</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>6158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6">
-        <v>899999</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -5676,86 +6751,124 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>899999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>6145</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>5003</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9">
-        <v>1654</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>1654</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>1541</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="655" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="90" yWindow="30" windowWidth="28710" windowHeight="6495" tabRatio="655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="CARCINOMA OF UNKNOWN PRIMARY" sheetId="11" r:id="rId11"/>
     <sheet name="CERVICAL" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="342">
   <si>
     <t>Title</t>
   </si>
@@ -1032,6 +1032,30 @@
   </si>
   <si>
     <t>http://seer.cancer.gov/statfacts/html/cervix.html</t>
+  </si>
+  <si>
+    <t>en_ext_link_causes_1</t>
+  </si>
+  <si>
+    <t>en_ext_link_causes_2</t>
+  </si>
+  <si>
+    <t>en_ext_link_causes_3</t>
+  </si>
+  <si>
+    <t>en_ext_link_screening_1</t>
+  </si>
+  <si>
+    <t>en_ext_link_screening_2</t>
+  </si>
+  <si>
+    <t>en_ext_link_survival</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_1</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_2</t>
   </si>
 </sst>
 </file>
@@ -1051,6 +1075,7 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,7 +1127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1110,6 +1135,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1239,7 +1279,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1247,18 +1287,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1272,6 +1303,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="126">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1741,16 +1785,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
@@ -1790,7 +1834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>141</v>
       </c>
@@ -1810,7 +1854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
@@ -1830,7 +1874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>145</v>
       </c>
@@ -1850,7 +1894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
@@ -1870,7 +1914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
@@ -1890,7 +1934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -1910,7 +1954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>153</v>
       </c>
@@ -1930,7 +1974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>155</v>
       </c>
@@ -1950,7 +1994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
@@ -1970,7 +2014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
@@ -1990,14 +2034,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -2008,14 +2052,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
         <v>161</v>
       </c>
@@ -2026,14 +2070,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>161</v>
       </c>
@@ -2044,14 +2088,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>161</v>
       </c>
@@ -2062,14 +2106,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" t="s">
         <v>161</v>
       </c>
@@ -2080,14 +2124,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>161</v>
       </c>
@@ -2098,14 +2142,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" t="s">
         <v>161</v>
       </c>
@@ -2116,14 +2160,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
       <c r="D20" t="s">
         <v>161</v>
       </c>
@@ -2134,14 +2178,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5">
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="D21" t="s">
         <v>161</v>
       </c>
@@ -2152,14 +2196,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="D22" t="s">
         <v>161</v>
       </c>
@@ -2170,14 +2214,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="D23" t="s">
         <v>161</v>
       </c>
@@ -2188,14 +2232,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" t="s">
         <v>161</v>
       </c>
@@ -2206,8 +2250,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2226,8 +2270,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.5">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2246,8 +2290,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2266,11 +2310,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="E28" t="s">
         <v>86</v>
       </c>
@@ -2278,7 +2322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.5">
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>139</v>
       </c>
@@ -2298,7 +2342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>141</v>
       </c>
@@ -2318,7 +2362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5">
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
@@ -2338,7 +2382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>145</v>
       </c>
@@ -2358,7 +2402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5">
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>147</v>
       </c>
@@ -2378,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5">
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>149</v>
       </c>
@@ -2398,7 +2442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="31.5">
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>151</v>
       </c>
@@ -2418,7 +2462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.5">
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>153</v>
       </c>
@@ -2438,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="31.5">
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>155</v>
       </c>
@@ -2458,7 +2502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5">
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>157</v>
       </c>
@@ -2478,7 +2522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.5">
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2498,7 +2542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.5">
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2538,15 +2582,15 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -2586,7 +2630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2606,7 +2650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -2626,7 +2670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2646,7 +2690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -2666,7 +2710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -2686,7 +2730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -2706,7 +2750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -2726,14 +2770,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -2744,14 +2788,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -2762,14 +2806,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -2780,14 +2824,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -2798,14 +2842,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -2816,14 +2860,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>29</v>
       </c>
@@ -2834,14 +2878,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>29</v>
       </c>
@@ -2852,14 +2896,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" t="s">
         <v>29</v>
       </c>
@@ -2870,14 +2914,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -2888,14 +2932,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -2906,8 +2950,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2926,8 +2970,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2946,8 +2990,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2966,12 +3010,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="E23" t="s">
         <v>86</v>
       </c>
@@ -2979,7 +3023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -2999,7 +3043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -3019,7 +3063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -3039,7 +3083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -3059,7 +3103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -3079,7 +3123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3099,7 +3143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -3119,7 +3163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
@@ -3139,7 +3183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3159,7 +3203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3199,16 +3243,16 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3228,50 +3272,50 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>307</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -3282,8 +3326,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3302,8 +3346,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3322,8 +3366,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3342,43 +3386,43 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -3398,7 +3442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -3433,20 +3477,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
     <col min="2" max="2" width="62" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,50 +3508,50 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>313</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -3520,25 +3562,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3558,44 +3600,44 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3614,8 +3656,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>321</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3631,179 +3673,179 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="6" t="s">
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="13" t="s">
+      <c r="F16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3828,16 +3870,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="59.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3857,7 +3899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -3877,7 +3919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3897,7 +3939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3917,14 +3959,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>29</v>
       </c>
@@ -3935,7 +3977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -3955,7 +3997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -3975,7 +4017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3995,7 +4037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
@@ -4015,8 +4057,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4035,8 +4077,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4055,8 +4097,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4075,8 +4117,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4095,8 +4137,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4115,12 +4157,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="E15" t="s">
         <v>86</v>
       </c>
@@ -4128,7 +4170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -4148,7 +4190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -4168,7 +4210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -4188,7 +4230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -4208,7 +4250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -4228,8 +4270,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4248,7 +4290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -4289,17 +4331,17 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4319,7 +4361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
@@ -4339,7 +4381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4359,14 +4401,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -4377,7 +4419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -4397,7 +4439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4417,8 +4459,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4437,8 +4479,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4457,8 +4499,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4477,7 +4519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>213</v>
       </c>
@@ -4497,11 +4539,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="E11" t="s">
         <v>86</v>
       </c>
@@ -4509,7 +4551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>221</v>
       </c>
@@ -4529,7 +4571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -4549,7 +4591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -4569,8 +4611,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4610,16 +4652,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="73.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="73.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4639,7 +4681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -4659,7 +4701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -4679,14 +4721,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>238</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -4697,14 +4739,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>29</v>
       </c>
@@ -4715,7 +4757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -4735,8 +4777,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4755,8 +4797,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4775,8 +4817,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4795,8 +4837,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4815,11 +4857,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="E11" t="s">
         <v>86</v>
       </c>
@@ -4827,7 +4869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -4847,7 +4889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -4867,7 +4909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -4887,7 +4929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -4928,16 +4970,16 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4957,7 +4999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -4977,7 +5019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -4997,7 +5039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -5017,25 +5059,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>253</v>
       </c>
@@ -5055,14 +5097,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" t="s">
         <v>29</v>
       </c>
@@ -5073,7 +5115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -5093,7 +5135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -5113,7 +5155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -5133,7 +5175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -5153,7 +5195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -5173,7 +5215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -5193,7 +5235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -5213,14 +5255,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>269</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>29</v>
       </c>
@@ -5231,14 +5273,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>271</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>29</v>
       </c>
@@ -5249,14 +5291,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>273</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>13803</v>
       </c>
       <c r="D17" t="s">
@@ -5269,7 +5311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -5289,7 +5331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -5309,68 +5351,68 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
+      <c r="F20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>294</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -5381,14 +5423,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>297</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" t="s">
         <v>29</v>
       </c>
@@ -5399,176 +5441,176 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="11" t="s">
+      <c r="F26" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.5">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5587,503 +5629,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="46.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19">
+        <v>8726</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2190</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2203</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="15">
+        <v>8036</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2301</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="19">
+        <v>4980</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2840</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2898</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9507</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15">
+        <v>6835</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19">
+        <v>4924</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3853</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="15">
+        <v>4031</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C24" s="19">
         <v>4162</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D24" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C25" s="19">
         <v>4052</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="31.5">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2898</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9507</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6835</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4924</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2203</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8726</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4980</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8036</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30">
-      <c r="B20" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="E20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1">
-      <c r="A21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2840</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3853</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4031</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2190</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2301</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G25" s="15"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G25">
+    <sortCondition ref="E2:E25"/>
+    <sortCondition ref="D2:D25"/>
+    <sortCondition ref="F2:F25"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6103,17 +6192,17 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6133,7 +6222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -6153,7 +6242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6173,14 +6262,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -6191,7 +6280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6211,8 +6300,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6231,8 +6320,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6251,8 +6340,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6271,7 +6360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -6291,7 +6380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -6311,7 +6400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -6331,7 +6420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -6371,16 +6460,16 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6400,7 +6489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -6420,14 +6509,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" t="s">
         <v>29</v>
       </c>
@@ -6438,7 +6527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -6458,7 +6547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6478,7 +6567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -6498,8 +6587,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6518,8 +6607,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6538,11 +6627,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="E9" t="s">
         <v>86</v>
       </c>
@@ -6550,7 +6639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -6570,7 +6659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -6590,7 +6679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -6630,15 +6719,15 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="6" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="6" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6658,7 +6747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -6678,32 +6767,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -6714,7 +6803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6734,8 +6823,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6754,8 +6843,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6774,8 +6863,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6794,7 +6883,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -6814,25 +6903,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -6852,7 +6941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="28710" windowHeight="6495" tabRatio="655" activeTab="5"/>
+    <workbookView xWindow="90" yWindow="30" windowWidth="28710" windowHeight="6495" tabRatio="655"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="352">
   <si>
     <t>Title</t>
   </si>
@@ -1056,6 +1056,36 @@
   </si>
   <si>
     <t>en_ext_link_treatment_2</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_3</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_4</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_5</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_6</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_7</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_8</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_9</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_10</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_11</t>
+  </si>
+  <si>
+    <t>en_ext_link_treatment_12</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,6 +1153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1315,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,6 +1352,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="126">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1779,786 +1822,815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="79.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="22">
         <v>1040</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="22">
         <v>5102</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="22">
         <v>4722</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>6395</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>4266</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>6413</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>6311</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="22">
         <v>212044</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="22">
         <v>4426</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="22">
         <v>4426</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="22">
         <v>65187</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" t="s">
+      <c r="C14" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="E14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" t="s">
+      <c r="C15" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" t="s">
+      <c r="C16" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" t="s">
+      <c r="C17" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="E17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" t="s">
+      <c r="C18" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="E18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" t="s">
+      <c r="C19" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="E19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" t="s">
+      <c r="C20" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" t="s">
+      <c r="C21" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" t="s">
+      <c r="C22" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="E22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" t="s">
+      <c r="C23" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" t="s">
+      <c r="C24" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="E24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="22">
         <v>6158</v>
       </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="22">
         <v>899999</v>
       </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="F26" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="22">
         <v>6145</v>
       </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="E28" t="s">
+      <c r="C28" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="F28" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="22">
         <v>3240</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="22">
         <v>1666</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="22">
         <v>997</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="22">
         <v>6590</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="22">
         <v>1601</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="22">
         <v>6463</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="22">
         <v>6293</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="22">
         <v>145267</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="22">
         <v>6476</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="22">
         <v>2451</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="22">
         <v>1654</v>
       </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="22">
         <v>1541</v>
       </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="22" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5629,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="28710" windowHeight="6495" tabRatio="655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="655" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="LEUKEMIA" sheetId="5" r:id="rId10"/>
     <sheet name="CARCINOMA OF UNKNOWN PRIMARY" sheetId="11" r:id="rId11"/>
     <sheet name="CERVICAL" sheetId="12" r:id="rId12"/>
+    <sheet name="MYELOPROLIFERATIVE NEOPLASMS" sheetId="13" r:id="rId13"/>
+    <sheet name="COLORECTAL" sheetId="14" r:id="rId14"/>
+    <sheet name="ESOPHAGEAL" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="429">
   <si>
     <t>Title</t>
   </si>
@@ -1086,13 +1089,244 @@
   </si>
   <si>
     <t>en_ext_link_treatment_12</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/myeloproliferative/Patient</t>
+  </si>
+  <si>
+    <t>Chronic Myeloproliferative Neoplasms Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/myeloproliferative/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=12633780&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Chronic Myeloproliferative Neoplasms</t>
+  </si>
+  <si>
+    <t>Myelodysplastic Syndrones Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/myelodysplastic/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/myelodysplastic/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10301263&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Myelodysplastic Syndromes Treatment</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Myelodysplastic Syndromes</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10301264&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Myelodysplastic/Myeloproliferative Neoplasms</t>
+  </si>
+  <si>
+    <t>Myelodysplastic/Myeloproliferative Neoplasms Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/mds-mpd/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/mds-mpd/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Myeloproliferative Neoplasms</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/myeloproliferativeneoplasms</t>
+  </si>
+  <si>
+    <t>Colon Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/colon/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/colon/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Rectal Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/rectal/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/rectal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6189733&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Colon Cancer</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Rectal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6175325&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Colon and Rectal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/colorectalcancer</t>
+  </si>
+  <si>
+    <t>Colorectal Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/colorectal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/colorectal/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6212424&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Colon Cancer</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Rectal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6175329&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Genetics of Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/genetics/colorectal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>PDQ Genetics Information</t>
+  </si>
+  <si>
+    <t>Breast and Colon Cancer Family Registries</t>
+  </si>
+  <si>
+    <t>http://epi.grants.cancer.gov/CFR/</t>
+  </si>
+  <si>
+    <t>Cancer Genetics Services Directory</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/genetics/directory</t>
+  </si>
+  <si>
+    <t>Colorectal Cancer Risk Assessment Tool</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/colorectalcancerrisk/</t>
+  </si>
+  <si>
+    <t>Colorectal Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/colorectal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/colorectal/Patient</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Screen for Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6139785&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/detection/colorectal-screening</t>
+  </si>
+  <si>
+    <t>Tests to Detect Colorectal Cancer and Polyps</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/colorect.html</t>
+  </si>
+  <si>
+    <t>Screening Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGE HASN'T BEEN CREATED YET. </t>
+  </si>
+  <si>
+    <t>Esophageal Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/esophageal/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/esophageal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8670696&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Esophageal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/photodynamic</t>
+  </si>
+  <si>
+    <t>Photodynamic Therapy for Cancer</t>
+  </si>
+  <si>
+    <t>Esophageal Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/esophageal/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/esophageal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Esophageal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6543291&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET. URL WILL BE: www.cancer.gov/about-cancer/causes-prevention/risk-factors/alcohol</t>
+  </si>
+  <si>
+    <t>Esophageal Cancer Screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screening </t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/esophageal/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/esophageal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Screen for Esophageal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6395896&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/esoph.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1120,6 +1354,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1173,21 +1414,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="126">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1314,8 +1555,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1338,7 +1697,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1359,8 +1717,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="126">
+  <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1446,6 +1816,65 @@
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1486,6 +1915,65 @@
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1822,815 +2310,815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="79.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>1040</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>5102</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>4722</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>6395</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>4266</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>6413</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>6311</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>212044</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>4426</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>4426</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>65187</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="D13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="E14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="E15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="E16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="E17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="E18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="E19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="E20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="E21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="E22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="E23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="E24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>6158</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>899999</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="F26" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>6145</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="F28" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>3240</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>1666</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>997</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>6590</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>1601</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>6463</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="22" t="s">
+      <c r="E34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>6293</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="E35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <v>145267</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="22" t="s">
+      <c r="E36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <v>6476</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="22" t="s">
+      <c r="E37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <v>2451</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="22" t="s">
+      <c r="E38" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="21">
         <v>1654</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <v>1541</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2650,19 +3138,19 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +3170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -2702,7 +3190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -2722,7 +3210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -2742,7 +3230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2762,7 +3250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -2782,7 +3270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -2802,7 +3290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -2822,7 +3310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -2842,7 +3330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
@@ -2860,7 +3348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -2878,7 +3366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -2896,7 +3384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -2914,7 +3402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -2932,7 +3420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
@@ -2950,7 +3438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -2968,7 +3456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -2986,7 +3474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -3004,7 +3492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -3022,7 +3510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
@@ -3042,7 +3530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -3062,7 +3550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -3082,7 +3570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
@@ -3095,7 +3583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -3115,7 +3603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -3135,7 +3623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -3155,7 +3643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -3175,7 +3663,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -3195,7 +3683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3215,7 +3703,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -3235,7 +3723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
@@ -3255,7 +3743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3275,7 +3763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3312,19 +3800,19 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3344,7 +3832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>304</v>
       </c>
@@ -3362,7 +3850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -3398,7 +3886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -3418,7 +3906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -3438,7 +3926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -3458,7 +3946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.5">
       <c r="A8" s="10" t="s">
         <v>304</v>
       </c>
@@ -3476,7 +3964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -3494,7 +3982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -3514,7 +4002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -3547,20 +4035,22 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="62" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3580,12 +4070,1270 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="27" t="s">
         <v>310</v>
       </c>
+      <c r="B2" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5">
+      <c r="A4" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5">
+      <c r="A8" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="21">
+        <v>899999</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5">
+      <c r="A13" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5">
+      <c r="A14" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5">
+      <c r="A15" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="A2:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="77.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="21">
+        <v>6158</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="21">
+        <v>899999</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="21">
+        <v>6145</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1654</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1541</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="70" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="21">
+        <v>899999</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="6" customFormat="1">
+      <c r="A17" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>408</v>
+      </c>
       <c r="B2" s="11" t="s">
-        <v>309</v>
+        <v>409</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
@@ -3598,8 +5346,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -3616,12 +5364,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>313</v>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
@@ -3634,290 +5382,253 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C5" s="22">
         <v>6835</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
-        <v>899999</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="F17" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E18" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3942,16 +5653,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.375" customWidth="1"/>
-    <col min="2" max="2" width="59.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +5682,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -3991,7 +5702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4011,7 +5722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -4031,7 +5742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -4049,7 +5760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -4069,7 +5780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -4089,7 +5800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4109,7 +5820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
@@ -4129,7 +5840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -4149,7 +5860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -4169,7 +5880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="5" t="s">
         <v>211</v>
       </c>
@@ -4189,7 +5900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -4209,7 +5920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="5" t="s">
         <v>213</v>
       </c>
@@ -4229,7 +5940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>215</v>
@@ -4242,7 +5953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -4262,7 +5973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -4282,7 +5993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -4302,7 +6013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -4322,7 +6033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31.5">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -4342,7 +6053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="5" t="s">
         <v>211</v>
       </c>
@@ -4362,7 +6073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -4403,17 +6114,17 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +6144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
@@ -4453,7 +6164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4473,7 +6184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>224</v>
       </c>
@@ -4491,7 +6202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -4511,7 +6222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4531,7 +6242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
@@ -4551,7 +6262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
@@ -4571,7 +6282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="7" t="s">
         <v>228</v>
       </c>
@@ -4591,7 +6302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>213</v>
       </c>
@@ -4611,7 +6322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>231</v>
       </c>
@@ -4623,7 +6334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>221</v>
       </c>
@@ -4643,7 +6354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -4663,7 +6374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -4683,7 +6394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="7" t="s">
         <v>228</v>
       </c>
@@ -4724,16 +6435,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="73.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4753,7 +6464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -4773,7 +6484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -4793,7 +6504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -4811,7 +6522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -4829,7 +6540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -4849,7 +6560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
@@ -4869,7 +6580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
@@ -4889,7 +6600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -4909,7 +6620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="5" t="s">
         <v>213</v>
       </c>
@@ -4929,7 +6640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>244</v>
       </c>
@@ -4941,7 +6652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -4961,7 +6672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -4981,7 +6692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -5001,7 +6712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -5034,24 +6745,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5071,7 +6782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -5091,7 +6802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -5111,7 +6822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -5131,7 +6842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -5149,7 +6860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>253</v>
       </c>
@@ -5169,7 +6880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5187,7 +6898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -5207,7 +6918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -5227,7 +6938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -5247,7 +6958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -5267,7 +6978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +6998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -5307,7 +7018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -5327,7 +7038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" t="s">
         <v>269</v>
       </c>
@@ -5345,7 +7056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>271</v>
       </c>
@@ -5363,7 +7074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" t="s">
         <v>273</v>
       </c>
@@ -5383,7 +7094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -5403,7 +7114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -5423,7 +7134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>282</v>
       </c>
@@ -5441,7 +7152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
         <v>290</v>
       </c>
@@ -5459,7 +7170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
         <v>292</v>
       </c>
@@ -5477,7 +7188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>294</v>
       </c>
@@ -5495,7 +7206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" t="s">
         <v>297</v>
       </c>
@@ -5513,59 +7224,59 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="F26" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="F27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
@@ -5578,12 +7289,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>251</v>
+    <row r="30" spans="1:6" ht="31.5">
+      <c r="A30" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
@@ -5596,16 +7307,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="31.5">
       <c r="A31" s="8" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>37</v>
@@ -5614,75 +7325,93 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" s="8" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="31.5">
       <c r="A33" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33" s="10"/>
+        <v>267</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:6" ht="31.5">
+      <c r="A34" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5699,545 +7428,564 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="13"/>
+    <col min="1" max="1" width="46.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="17.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" s="19" customFormat="1">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="F2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="F3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" s="19" customFormat="1">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="F4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" s="19" customFormat="1">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="F5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" s="19" customFormat="1">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>8726</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="F6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="19" customFormat="1">
+      <c r="A7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>2190</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>2203</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>8036</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>2301</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>4980</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C16" s="16">
         <v>2840</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C17" s="15">
         <v>2898</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="14">
         <v>9507</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="D19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="D20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C21" s="14">
         <v>6835</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="D21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1">
+      <c r="A22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C22" s="18">
         <v>4924</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="D22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C23" s="14">
         <v>3853</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C24" s="14">
         <v>4031</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C25" s="18">
         <v>4162</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="E25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C26" s="18">
         <v>4052</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="E26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G26" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:G25">
@@ -6264,17 +8012,17 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6294,7 +8042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -6314,7 +8062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6334,7 +8082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
@@ -6352,7 +8100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6372,7 +8120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -6392,7 +8140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -6412,7 +8160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -6432,7 +8180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -6452,7 +8200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -6472,7 +8220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -6492,7 +8240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -6532,16 +8280,16 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6561,7 +8309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -6581,7 +8329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -6599,7 +8347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -6619,7 +8367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6639,7 +8387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -6659,7 +8407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -6679,7 +8427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -6699,7 +8447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
@@ -6711,7 +8459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -6731,7 +8479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -6751,7 +8499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -6788,18 +8536,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="6" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6819,7 +8567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -6839,7 +8587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -6857,7 +8605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -6875,7 +8623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6895,7 +8643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -6915,7 +8663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -6935,7 +8683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -6955,7 +8703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -6975,7 +8723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +8741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -7013,7 +8761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="655" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="655" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="430">
   <si>
     <t>Title</t>
   </si>
@@ -1320,13 +1320,16 @@
   </si>
   <si>
     <t>http://seer.cancer.gov/statfacts/html/esoph.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (WILL HAVE A DIFFERENT NVCG URL THOUGH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1365,8 +1368,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,12 +1392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,21 +1686,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1714,21 +1706,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2310,815 +2318,815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="15">
         <v>1040</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>5102</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="15">
         <v>4722</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="15">
         <v>6395</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="15">
         <v>4266</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="15">
         <v>6413</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="15">
         <v>6311</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="15">
         <v>212044</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="15">
         <v>4426</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="15">
         <v>4426</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>65187</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="22" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="22" t="s">
+      <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="22" t="s">
+      <c r="E15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="22" t="s">
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="22" t="s">
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="22" t="s">
+      <c r="E18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="22" t="s">
+      <c r="E19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="22" t="s">
+      <c r="E20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="22" t="s">
+      <c r="E21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="22" t="s">
+      <c r="E22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="22" t="s">
+      <c r="E23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="20" t="s">
+      <c r="E24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="15">
         <v>6158</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="15">
         <v>899999</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20" t="s">
+      <c r="F26" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="15">
         <v>6145</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="22" t="s">
+      <c r="F28" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="15">
         <v>3240</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="15">
         <v>1666</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="15">
         <v>997</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="E31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="15">
         <v>6590</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="E32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="15">
         <v>1601</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="E33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="15">
         <v>6463</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="E34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="15">
         <v>6293</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="E35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="15">
         <v>145267</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="15">
         <v>6476</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="E37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="15">
         <v>2451</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="E38" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="15">
         <v>1654</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="15">
         <v>1541</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3137,20 +3145,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3170,7 +3178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -3230,7 +3238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -3250,7 +3258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -3270,7 +3278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -3290,7 +3298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -3330,14 +3338,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -3348,14 +3356,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -3366,14 +3374,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -3384,14 +3392,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -3402,14 +3410,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -3420,14 +3428,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="D15" t="s">
         <v>29</v>
       </c>
@@ -3438,14 +3446,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
       <c r="D16" t="s">
         <v>29</v>
       </c>
@@ -3456,14 +3464,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
       <c r="D17" t="s">
         <v>29</v>
       </c>
@@ -3474,14 +3482,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -3492,14 +3500,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -3510,8 +3518,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3530,8 +3538,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3550,8 +3558,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3570,12 +3578,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
       <c r="E23" t="s">
         <v>86</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -3603,7 +3611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -3643,7 +3651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -3683,7 +3691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3703,7 +3711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -3723,7 +3731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
@@ -3743,7 +3751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3798,28 +3806,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3832,50 +3840,54 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="5">
+        <v>1187</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="5">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>307</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -3886,8 +3898,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3906,8 +3918,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3926,8 +3938,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3946,43 +3958,47 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="5">
+        <v>3933</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="5">
+        <v>2840</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -4002,7 +4018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4037,396 +4053,418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
     <col min="2" max="2" width="62" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="14">
+        <v>4250</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="27" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="C5" s="14">
+        <v>79694</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <v>6835</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="14">
+        <v>2083</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="20" t="s">
+      <c r="F8" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="15">
         <v>899999</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27" t="s">
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="14">
+        <v>899754</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="14">
+        <v>814107</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="C13" s="14">
+        <v>15596</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14" s="20" t="s">
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5">
-      <c r="A15" s="20" t="s">
+      <c r="F14" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="20" t="s">
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="27" t="s">
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="14">
+        <v>1553</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="C19" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="14">
+        <v>1609</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="14">
+        <v>1513</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4445,21 +4483,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="A2:F17"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="77.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4479,303 +4517,303 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="28" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="28" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <v>6835</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="D9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="15">
         <v>6158</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="15">
         <v>899999</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="20" t="s">
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>6145</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="15">
         <v>1654</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="15">
         <v>1541</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4794,21 +4832,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.375" customWidth="1"/>
     <col min="2" max="2" width="70" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4828,453 +4866,453 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="21" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="27" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <v>6835</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="21" t="s">
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="20" t="s">
+      <c r="F12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>899999</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="27" t="s">
+      <c r="F13" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="27" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="6" customFormat="1">
-      <c r="A17" s="20" t="s">
+      <c r="F16" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="27" t="s">
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="27" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5293,342 +5331,342 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <v>6835</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="28" t="s">
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="28" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="29" t="s">
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="29" t="s">
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="28" t="s">
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="28" t="s">
+      <c r="F11" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="28" t="s">
+      <c r="F14" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5647,455 +5685,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="16">
         <v>4897</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="16">
         <v>4564</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="16">
         <v>5220</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="16">
         <v>102660</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="16">
         <v>15469</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="16">
         <v>6835</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="16">
         <v>5913</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>6158</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>899999</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="16">
         <v>5913</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="16">
         <v>6145</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="16">
         <v>13674</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="E15" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5">
-      <c r="A16" t="s">
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="16">
         <v>3341</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="16">
         <v>3357</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="16">
         <v>2368</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="16">
         <v>5901</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="16">
         <v>1654</v>
       </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="16">
         <v>2419</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="16">
         <v>1541</v>
       </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="15" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6114,303 +6154,305 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="16">
         <v>1098</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="16">
         <v>2898</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="16">
         <v>65189</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="16">
         <v>6835</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>6158</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>899999</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <v>5544</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>13674</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="E11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="15">
         <v>3394</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="15">
         <v>2840</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>1654</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="15">
         <v>2856</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6427,7 +6469,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6435,302 +6477,322 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="73.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="69.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="15">
         <v>5824</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>4065</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>81826</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>6158</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>899999</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <v>6145</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="15">
         <v>13674</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="E11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="15">
         <v>2434</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="15">
         <v>1055</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>1654</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="15">
         <v>1541</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="G15" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6747,673 +6809,711 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:F25"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="15">
         <v>4127</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>4393</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="15">
         <v>4411</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>65188</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5">
-      <c r="A7" t="s">
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>461886</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5">
-      <c r="A9" t="s">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <v>15646</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>13426</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5">
-      <c r="A11" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>283901</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="16">
         <v>6835</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="15">
         <v>479707</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>4694</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5">
-      <c r="A17" t="s">
+      <c r="F16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="14">
         <v>13803</v>
       </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="F17" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="15">
         <v>899999</v>
       </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="15">
         <v>14381</v>
       </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
+      <c r="F19" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="14">
+        <v>14370</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="F20" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="14">
+        <v>4706</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="14">
+        <v>14237</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="F22" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" t="s">
+      <c r="F23" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="24" t="s">
+      <c r="F24" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>406</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
+      <c r="F25" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="14">
+        <v>112306</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="2" t="s">
+      <c r="F26" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
+      <c r="F27" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B28" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="C28" s="14">
+        <v>1797</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
-      <c r="A30" s="10" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B29" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
+      <c r="C29" s="14">
+        <v>1346</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.5">
-      <c r="A31" s="8" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B30" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
+      <c r="C30" s="14">
+        <v>1678</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
-      <c r="A32" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="C31" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5">
-      <c r="A33" s="8" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B32" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="C32" s="14">
+        <v>1743</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F32" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5">
-      <c r="A34" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B33" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="8" t="s">
+      <c r="C33" s="14">
+        <v>2569</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E33" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F33" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B34" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="C34" s="14">
+        <v>15684</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F34" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B35" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8" t="s">
+      <c r="C35" s="14">
+        <v>1433</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F35" s="14" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7432,566 +7532,564 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:F5"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="12"/>
+    <col min="1" max="1" width="46.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" s="19" customFormat="1">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8726</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" s="19" customFormat="1">
-      <c r="A3" s="18" t="s">
+      <c r="F3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" s="19" customFormat="1">
-      <c r="A4" s="18" t="s">
+      <c r="F4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9507</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2190</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2203</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2301</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4980</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="24">
+        <v>4924</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <v>8036</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3853</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4162</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4031</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4052</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C21" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" s="19" customFormat="1">
-      <c r="A5" s="18" t="s">
+      <c r="F21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" s="19" customFormat="1">
-      <c r="A6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="18">
-        <v>8726</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" s="19" customFormat="1">
-      <c r="A7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="18">
-        <v>2190</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="F22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6835</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2840</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" s="19" customFormat="1">
-      <c r="A8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2203</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2898</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="14">
-        <v>8036</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2301</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="18">
-        <v>4980</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
+      <c r="G25" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="16">
-        <v>2840</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2898</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14">
-        <v>9507</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="14">
-        <v>6835</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1">
-      <c r="A22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="18">
-        <v>4924</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3853</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="14">
-        <v>4031</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="18">
-        <v>4162</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="18">
-        <v>4052</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="14"/>
+      <c r="F26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G25">
-    <sortCondition ref="E2:E25"/>
-    <sortCondition ref="D2:D25"/>
-    <sortCondition ref="F2:F25"/>
+  <sortState ref="A2:G26">
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8009,254 +8107,254 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="15">
         <v>5309</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>885902</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="16">
         <v>6835</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>6158</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>899999</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>6145</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <v>3374</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>2898</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>1654</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="15">
         <v>1541</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8277,19 +8375,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8309,7 +8407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -8329,14 +8427,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3" t="s">
         <v>29</v>
       </c>
@@ -8347,7 +8445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -8367,7 +8465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8387,7 +8485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -8407,8 +8505,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8427,8 +8525,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8447,11 +8545,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="E9" t="s">
         <v>86</v>
       </c>
@@ -8459,7 +8557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -8479,7 +8577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -8499,7 +8597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -8536,25 +8634,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:F12"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="6" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="6" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8567,7 +8665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -8587,32 +8685,34 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="27">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -8623,7 +8723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8643,8 +8743,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8663,8 +8763,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8683,8 +8783,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8703,7 +8803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -8723,25 +8823,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="27">
+        <v>2840</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -8761,7 +8863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="655" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="655" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="COLORECTAL" sheetId="14" r:id="rId14"/>
     <sheet name="ESOPHAGEAL" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1376,7 +1376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,12 +1392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1672,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1706,17 +1700,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,7 +1720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3827,7 +3816,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3844,7 +3833,7 @@
       <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>305</v>
       </c>
       <c r="C2" s="5">
@@ -3864,7 +3853,7 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="5">
@@ -3962,7 +3951,7 @@
       <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>306</v>
       </c>
       <c r="C8" s="5">
@@ -3982,7 +3971,7 @@
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="5">
@@ -4067,22 +4056,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4483,9 +4472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4517,21 +4506,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="14">
+        <v>5753</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4553,21 +4544,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="14">
+        <v>5795</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4589,21 +4582,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="14">
+        <v>5638</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4625,21 +4620,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="C8" s="14">
+        <v>89610</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4723,57 +4720,63 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="14">
+        <v>3773</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="14">
+        <v>3791</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="14">
+        <v>5628</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4834,7 +4837,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4866,57 +4869,63 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="14">
+        <v>4107</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="14">
+        <v>4214</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4956,21 +4965,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="14">
+        <v>65316</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4994,21 +5005,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="14">
+        <v>4845</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5086,21 +5099,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="14">
+        <v>4861</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5122,21 +5137,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="14">
+        <v>14718</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5172,93 +5189,103 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="14">
+        <v>1018</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="14">
+        <v>1168</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="C21" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="14">
+        <v>1626</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="14">
+        <v>2699</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5280,39 +5307,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="14">
+        <v>16392</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="14">
+        <v>1468</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5331,9 +5362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5347,62 +5378,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="14">
+        <v>4232</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>412</v>
       </c>
@@ -5440,43 +5475,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="14">
+        <v>15170</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="14">
+        <v>3016</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>418</v>
       </c>
@@ -5494,79 +5533,81 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="F9" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="14">
+        <v>5570</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>426</v>
       </c>
@@ -5598,75 +5639,83 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="14">
+        <v>1312</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="14">
+        <v>2935</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="14">
+        <v>2886</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6832,7 +6881,7 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -7296,20 +7345,20 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7821,22 +7870,22 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <v>4924</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="24" t="s">
+      <c r="D14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="12"/>
@@ -7905,20 +7954,20 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="8"/>
@@ -8121,22 +8170,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8652,7 +8701,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8689,10 +8738,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>2898</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -8827,10 +8876,10 @@
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <v>2840</v>
       </c>
       <c r="D10" s="5" t="s">

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="655" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -22,8 +22,15 @@
     <sheet name="MYELOPROLIFERATIVE NEOPLASMS" sheetId="13" r:id="rId13"/>
     <sheet name="COLORECTAL" sheetId="14" r:id="rId14"/>
     <sheet name="ESOPHAGEAL" sheetId="15" r:id="rId15"/>
+    <sheet name="EXTRACRANIAL GERM CELL TUMOR" sheetId="16" r:id="rId16"/>
+    <sheet name="EXTRAGONADAL GERM CELL TUMOR" sheetId="17" r:id="rId17"/>
+    <sheet name="RETINOBLASTOMA" sheetId="18" r:id="rId18"/>
+    <sheet name="INTRAOCULAR MELANOMA" sheetId="19" r:id="rId19"/>
+    <sheet name="SKIN" sheetId="20" r:id="rId20"/>
+    <sheet name="MALIGNANT MESOTHELIOMA" sheetId="22" r:id="rId21"/>
+    <sheet name="GALLBLADDER" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="506">
   <si>
     <t>Title</t>
   </si>
@@ -1323,13 +1330,263 @@
   </si>
   <si>
     <t xml:space="preserve"> (WILL HAVE A DIFFERENT NVCG URL THOUGH)</t>
+  </si>
+  <si>
+    <t>Childhood Extracranial Germ Cell Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/extracranial-germ-cell/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/extracranial-germ-cell/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/extragonadal-germ-cell/Patient</t>
+  </si>
+  <si>
+    <t>Extragonadal Germ Cell Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/extragonadal-germ-cell/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Extragonadal Germ Cell Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8758981&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Tretment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/retinoblastoma/patient</t>
+  </si>
+  <si>
+    <t>Retinoblastoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/retinoblastoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Retinoblastoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/retinoblastoma</t>
+  </si>
+  <si>
+    <t>Cryosurgery in Cancer Treatment</t>
+  </si>
+  <si>
+    <t>Link to this FS or to Types of Treatment &gt; Surgery ?</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/intraocularmelanoma/Patient</t>
+  </si>
+  <si>
+    <t>Intraocular (Uveal) Melanoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/intraocularmelanoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6189661&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Intraocular (Eye) Melanoma</t>
+  </si>
+  <si>
+    <t>Skin Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/skin/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/skin/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/melanoma/Patient</t>
+  </si>
+  <si>
+    <t>Melanoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/melanoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Merkel Cell Carcinoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/merkelcell/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/merkelcell/healthprofessional</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Skin Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/skincancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/melanoma</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Melanoma</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Skin Cancer (Nonmelanoma)</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6189586&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Merkel Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=7402825&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6189764&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Melanoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/skin/Patient</t>
+  </si>
+  <si>
+    <t>Skin Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/skin/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Melanoma Risk Assessment Tool</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/melanomarisktool/</t>
+  </si>
+  <si>
+    <t>Sun Exposure</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/prevention/skin/anyone-can-get-skin-cancer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>think</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we are using this as the shell for this NVCG risk factor page</t>
+    </r>
+  </si>
+  <si>
+    <t>LB Notes</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Skin Cancer (Nonmelanoma)</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6200839&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Genetics of Skin Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/genetics/skin/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Melanoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6180514&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Skin Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/skin/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/skin/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://preview.cancer.gov/cancertopics/screening/screening-tests</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/melan.html</t>
+  </si>
+  <si>
+    <t>Malignant Mesothelioma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/malignantmesothelioma/patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/malignantmesothelioma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Malignant Mesothelioma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10252426&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Malignant Mesothelioma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/malignantmesothelioma</t>
+  </si>
+  <si>
+    <t>http://preview.cancer.gov/cancertopics/causes-prevention/risk-factors/cancer-causing-substances/asbestos</t>
+  </si>
+  <si>
+    <t>Asbestos</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gallbladder/Patient</t>
+  </si>
+  <si>
+    <t>Gallbladder Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gallbladder/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Gallbladder Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10217260&amp;vers=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight &amp; Activity </t>
+  </si>
+  <si>
+    <t>PAGE DOESN'T EXIST YET (/causes-prevention/risk-factors/weight-activity)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1375,8 +1632,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,6 +1669,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84EC9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3F0FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,7 +1715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="244">
+  <cellStyleXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1671,8 +1960,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1726,8 +2094,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="244">
+  <cellStyles count="323">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1872,6 +2246,72 @@
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1971,6 +2411,19 @@
     <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2307,23 +2760,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="79.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>139</v>
       </c>
@@ -2363,7 +2816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
         <v>141</v>
       </c>
@@ -2383,7 +2836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
         <v>143</v>
       </c>
@@ -2403,7 +2856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>145</v>
       </c>
@@ -2423,7 +2876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
         <v>147</v>
       </c>
@@ -2443,7 +2896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
         <v>149</v>
       </c>
@@ -2463,7 +2916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
         <v>151</v>
       </c>
@@ -2483,7 +2936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="16" t="s">
         <v>153</v>
       </c>
@@ -2503,7 +2956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
         <v>155</v>
       </c>
@@ -2523,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="16" t="s">
         <v>157</v>
       </c>
@@ -2543,7 +2996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
         <v>159</v>
       </c>
@@ -2563,7 +3016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
         <v>162</v>
       </c>
@@ -2583,7 +3036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
         <v>164</v>
       </c>
@@ -2603,7 +3056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>166</v>
       </c>
@@ -2623,7 +3076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
         <v>168</v>
       </c>
@@ -2643,7 +3096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="16" t="s">
         <v>170</v>
       </c>
@@ -2663,7 +3116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
         <v>172</v>
       </c>
@@ -2683,7 +3136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="16" t="s">
         <v>174</v>
       </c>
@@ -2703,7 +3156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
         <v>176</v>
       </c>
@@ -2723,7 +3176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
         <v>178</v>
       </c>
@@ -2743,7 +3196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="16" t="s">
         <v>180</v>
       </c>
@@ -2763,7 +3216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="16" t="s">
         <v>182</v>
       </c>
@@ -2783,7 +3236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="16" t="s">
         <v>184</v>
       </c>
@@ -2803,7 +3256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
         <v>63</v>
       </c>
@@ -2823,7 +3276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -2843,7 +3296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
         <v>85</v>
       </c>
@@ -2863,7 +3316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="16"/>
       <c r="B28" s="16" t="s">
         <v>186</v>
@@ -2879,7 +3332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="16" t="s">
         <v>139</v>
       </c>
@@ -2899,7 +3352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="16" t="s">
         <v>141</v>
       </c>
@@ -2919,7 +3372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="16" t="s">
         <v>143</v>
       </c>
@@ -2939,7 +3392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="16" t="s">
         <v>145</v>
       </c>
@@ -2959,7 +3412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="16" t="s">
         <v>147</v>
       </c>
@@ -2979,7 +3432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -2999,7 +3452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="16" t="s">
         <v>151</v>
       </c>
@@ -3019,7 +3472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="16" t="s">
         <v>153</v>
       </c>
@@ -3039,7 +3492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="16" t="s">
         <v>155</v>
       </c>
@@ -3059,7 +3512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="16" t="s">
         <v>157</v>
       </c>
@@ -3079,7 +3532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
@@ -3099,7 +3552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="15" t="s">
         <v>85</v>
       </c>
@@ -3134,20 +3587,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -3187,7 +3640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -3207,7 +3660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -3227,7 +3680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -3247,7 +3700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -3267,7 +3720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -3287,7 +3740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -3307,7 +3760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -3327,7 +3780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
@@ -3345,7 +3798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -3363,7 +3816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -3381,7 +3834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -3399,7 +3852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -3417,7 +3870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
@@ -3435,7 +3888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -3453,7 +3906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -3471,7 +3924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -3489,7 +3942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -3507,7 +3960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
@@ -3527,7 +3980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
@@ -3547,7 +4000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
@@ -3567,7 +4020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
@@ -3580,7 +4033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -3600,7 +4053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -3620,7 +4073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -3640,7 +4093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -3660,7 +4113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -3680,7 +4133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3700,7 +4153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -3720,7 +4173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
@@ -3740,7 +4193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3760,7 +4213,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3795,21 +4248,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +4282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
@@ -3849,7 +4302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3869,7 +4322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -3887,7 +4340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
@@ -3907,7 +4360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -3927,7 +4380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -3947,7 +4400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.5">
       <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
@@ -3967,7 +4420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +4440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -4007,7 +4460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4042,20 +4495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="62" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="14" t="s">
         <v>310</v>
       </c>
@@ -4095,7 +4548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -4115,7 +4568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="15" t="s">
         <v>313</v>
       </c>
@@ -4133,7 +4586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
         <v>314</v>
       </c>
@@ -4153,7 +4606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -4173,7 +4626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>317</v>
       </c>
@@ -4193,7 +4646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.5">
       <c r="A8" s="15" t="s">
         <v>320</v>
       </c>
@@ -4211,7 +4664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
@@ -4231,7 +4684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
         <v>321</v>
       </c>
@@ -4249,7 +4702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1">
       <c r="A11" s="14" t="s">
         <v>323</v>
       </c>
@@ -4269,7 +4722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>326</v>
       </c>
@@ -4289,7 +4742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A13" s="14" t="s">
         <v>329</v>
       </c>
@@ -4309,7 +4762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="14" t="s">
         <v>330</v>
       </c>
@@ -4327,7 +4780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="14" t="s">
         <v>331</v>
       </c>
@@ -4345,7 +4798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="14" t="s">
         <v>406</v>
       </c>
@@ -4363,7 +4816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
         <v>333</v>
@@ -4377,7 +4830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A18" s="14" t="s">
         <v>310</v>
       </c>
@@ -4397,7 +4850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -4417,7 +4870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A20" s="14" t="s">
         <v>317</v>
       </c>
@@ -4437,7 +4890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A21" s="14" t="s">
         <v>323</v>
       </c>
@@ -4472,21 +4925,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="77.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4506,7 +4959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>353</v>
       </c>
@@ -4526,7 +4979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="16" t="s">
         <v>356</v>
       </c>
@@ -4544,7 +4997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="18" t="s">
         <v>361</v>
       </c>
@@ -4564,7 +5017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>362</v>
       </c>
@@ -4582,7 +5035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A6" s="18" t="s">
         <v>365</v>
       </c>
@@ -4602,7 +5055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" s="16" t="s">
         <v>364</v>
       </c>
@@ -4620,7 +5073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1">
       <c r="A8" s="18" t="s">
         <v>368</v>
       </c>
@@ -4640,7 +5093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
@@ -4660,7 +5113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
         <v>63</v>
       </c>
@@ -4680,7 +5133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
         <v>64</v>
       </c>
@@ -4700,7 +5153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
@@ -4720,7 +5173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1">
       <c r="A13" s="18" t="s">
         <v>353</v>
       </c>
@@ -4740,7 +5193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="5" customFormat="1">
       <c r="A14" s="18" t="s">
         <v>357</v>
       </c>
@@ -4760,7 +5213,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A15" s="18" t="s">
         <v>365</v>
       </c>
@@ -4780,7 +5233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -4800,7 +5253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="15" t="s">
         <v>85</v>
       </c>
@@ -4835,21 +5288,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="70" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4869,7 +5322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>370</v>
       </c>
@@ -4889,7 +5342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1">
       <c r="A3" s="14" t="s">
         <v>373</v>
       </c>
@@ -4909,7 +5362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -4929,7 +5382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="15" t="s">
         <v>377</v>
       </c>
@@ -4947,7 +5400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="15" t="s">
         <v>378</v>
       </c>
@@ -4965,7 +5418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>380</v>
       </c>
@@ -4985,7 +5438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -5005,7 +5458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1">
       <c r="A9" s="14" t="s">
         <v>382</v>
       </c>
@@ -5025,7 +5478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="15" t="s">
         <v>386</v>
       </c>
@@ -5043,7 +5496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="15" t="s">
         <v>387</v>
       </c>
@@ -5061,7 +5514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
         <v>396</v>
       </c>
@@ -5079,7 +5532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
         <v>64</v>
       </c>
@@ -5099,7 +5552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="5" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>398</v>
       </c>
@@ -5119,7 +5572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5">
       <c r="A15" s="14" t="s">
         <v>401</v>
       </c>
@@ -5137,7 +5590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1">
       <c r="A16" s="14" t="s">
         <v>404</v>
       </c>
@@ -5157,14 +5610,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1">
       <c r="A17" s="14" t="s">
         <v>406</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="14"/>
+        <v>488</v>
+      </c>
+      <c r="C17" s="28"/>
       <c r="D17" s="14" t="s">
         <v>161</v>
       </c>
@@ -5175,7 +5628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
         <v>405</v>
@@ -5189,7 +5642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1">
       <c r="A19" s="14" t="s">
         <v>370</v>
       </c>
@@ -5209,7 +5662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>373</v>
       </c>
@@ -5229,7 +5682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A21" s="14" t="s">
         <v>2</v>
       </c>
@@ -5249,7 +5702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A22" s="14" t="s">
         <v>382</v>
       </c>
@@ -5269,7 +5722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>389</v>
       </c>
@@ -5289,7 +5742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="14" t="s">
         <v>392</v>
       </c>
@@ -5307,7 +5760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="5" customFormat="1">
       <c r="A25" s="14" t="s">
         <v>394</v>
       </c>
@@ -5327,7 +5780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1">
       <c r="A26" s="14" t="s">
         <v>398</v>
       </c>
@@ -5362,22 +5815,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5397,7 +5850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>408</v>
       </c>
@@ -5417,7 +5870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -5437,7 +5890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
         <v>412</v>
       </c>
@@ -5455,7 +5908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -5475,7 +5928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1">
       <c r="A6" s="18" t="s">
         <v>414</v>
       </c>
@@ -5495,7 +5948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1">
       <c r="A7" s="18" t="s">
         <v>415</v>
       </c>
@@ -5515,7 +5968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
         <v>418</v>
       </c>
@@ -5533,7 +5986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -5551,7 +6004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
@@ -5569,7 +6022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A11" s="18" t="s">
         <v>420</v>
       </c>
@@ -5587,7 +6040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="18" t="s">
         <v>422</v>
       </c>
@@ -5607,7 +6060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
         <v>426</v>
       </c>
@@ -5625,7 +6078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
         <v>428</v>
@@ -5639,7 +6092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="5" customFormat="1">
       <c r="A15" s="18" t="s">
         <v>408</v>
       </c>
@@ -5659,7 +6112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="31.5">
       <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
@@ -5679,7 +6132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1">
       <c r="A17" s="18" t="s">
         <v>415</v>
       </c>
@@ -5699,7 +6152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1">
       <c r="A18" s="18" t="s">
         <v>422</v>
       </c>
@@ -5716,6 +6169,896 @@
         <v>423</v>
       </c>
       <c r="F18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" customWidth="1"/>
+    <col min="2" max="2" width="82.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5734,23 +7077,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5770,7 +7113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
         <v>197</v>
       </c>
@@ -5790,7 +7133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>199</v>
       </c>
@@ -5810,7 +7153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
         <v>201</v>
       </c>
@@ -5830,7 +7173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="15" t="s">
         <v>203</v>
       </c>
@@ -5848,7 +7191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
         <v>205</v>
       </c>
@@ -5868,7 +7211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
         <v>207</v>
       </c>
@@ -5888,7 +7231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
@@ -5908,7 +7251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="16" t="s">
         <v>209</v>
       </c>
@@ -5928,7 +7271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
         <v>63</v>
       </c>
@@ -5948,7 +7291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
         <v>64</v>
       </c>
@@ -5968,7 +7311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
         <v>211</v>
       </c>
@@ -5988,7 +7331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
         <v>85</v>
       </c>
@@ -6008,7 +7351,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14" s="14" t="s">
         <v>213</v>
       </c>
@@ -6028,7 +7371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>215</v>
@@ -6042,7 +7385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="15" t="s">
         <v>197</v>
       </c>
@@ -6062,7 +7405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="15" t="s">
         <v>199</v>
       </c>
@@ -6082,7 +7425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
         <v>201</v>
       </c>
@@ -6102,7 +7445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="15" t="s">
         <v>209</v>
       </c>
@@ -6122,7 +7465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="15" t="s">
         <v>63</v>
       </c>
@@ -6142,7 +7485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="14" t="s">
         <v>211</v>
       </c>
@@ -6162,7 +7505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="15" t="s">
         <v>85</v>
       </c>
@@ -6184,7 +7527,1050 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="86.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="60.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="97.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6203,17 +8589,17 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6233,7 +8619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>221</v>
       </c>
@@ -6253,7 +8639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
@@ -6273,7 +8659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
         <v>224</v>
       </c>
@@ -6291,7 +8677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>226</v>
       </c>
@@ -6311,7 +8697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -6331,7 +8717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
@@ -6351,7 +8737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
@@ -6371,7 +8757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="18" t="s">
         <v>228</v>
       </c>
@@ -6391,7 +8777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
         <v>213</v>
       </c>
@@ -6411,7 +8797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
         <v>231</v>
@@ -6425,7 +8811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
         <v>221</v>
       </c>
@@ -6445,7 +8831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
@@ -6465,7 +8851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
         <v>63</v>
       </c>
@@ -6485,7 +8871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="18" t="s">
         <v>228</v>
       </c>
@@ -6526,17 +8912,17 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="69.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6557,7 +8943,7 @@
       </c>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
         <v>234</v>
       </c>
@@ -6578,7 +8964,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>236</v>
       </c>
@@ -6599,7 +8985,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>238</v>
       </c>
@@ -6618,7 +9004,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>240</v>
       </c>
@@ -6637,7 +9023,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>242</v>
       </c>
@@ -6658,7 +9044,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
@@ -6679,7 +9065,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
@@ -6700,7 +9086,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -6721,7 +9107,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="14" t="s">
         <v>213</v>
       </c>
@@ -6744,7 +9130,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
         <v>244</v>
@@ -6759,7 +9145,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="15" t="s">
         <v>234</v>
       </c>
@@ -6780,7 +9166,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
         <v>236</v>
       </c>
@@ -6801,7 +9187,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
         <v>63</v>
       </c>
@@ -6822,7 +9208,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="15" t="s">
         <v>85</v>
       </c>
@@ -6858,23 +9244,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +9280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
         <v>247</v>
       </c>
@@ -6914,7 +9300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>249</v>
       </c>
@@ -6934,7 +9320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
         <v>251</v>
       </c>
@@ -6954,7 +9340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -6974,7 +9360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
         <v>253</v>
       </c>
@@ -6994,7 +9380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
         <v>255</v>
       </c>
@@ -7012,7 +9398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
         <v>257</v>
       </c>
@@ -7032,7 +9418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
         <v>259</v>
       </c>
@@ -7052,7 +9438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
         <v>261</v>
       </c>
@@ -7072,7 +9458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
         <v>263</v>
       </c>
@@ -7092,7 +9478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
@@ -7112,7 +9498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
         <v>265</v>
       </c>
@@ -7132,7 +9518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="15" t="s">
         <v>267</v>
       </c>
@@ -7152,7 +9538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>269</v>
       </c>
@@ -7170,7 +9556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="15" t="s">
         <v>271</v>
       </c>
@@ -7188,7 +9574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="15" t="s">
         <v>273</v>
       </c>
@@ -7208,7 +9594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -7228,7 +9614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="15" t="s">
         <v>275</v>
       </c>
@@ -7248,7 +9634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="14" t="s">
         <v>282</v>
       </c>
@@ -7268,7 +9654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
         <v>290</v>
       </c>
@@ -7288,7 +9674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
         <v>292</v>
       </c>
@@ -7308,7 +9694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="15" t="s">
         <v>294</v>
       </c>
@@ -7326,7 +9712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="15" t="s">
         <v>297</v>
       </c>
@@ -7344,7 +9730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="20" t="s">
         <v>406</v>
       </c>
@@ -7362,7 +9748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
         <v>299</v>
       </c>
@@ -7382,7 +9768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="14"/>
       <c r="B27" s="18" t="s">
         <v>302</v>
@@ -7396,7 +9782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="14" t="s">
         <v>247</v>
       </c>
@@ -7416,7 +9802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
         <v>249</v>
       </c>
@@ -7436,7 +9822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
         <v>251</v>
       </c>
@@ -7456,7 +9842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="14" t="s">
         <v>2</v>
       </c>
@@ -7476,7 +9862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="14" t="s">
         <v>267</v>
       </c>
@@ -7496,7 +9882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
         <v>285</v>
       </c>
@@ -7516,7 +9902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
         <v>283</v>
       </c>
@@ -7536,7 +9922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
         <v>290</v>
       </c>
@@ -7556,7 +9942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15"/>
@@ -7584,19 +9970,19 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" style="6" customWidth="1"/>
     <col min="8" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7617,7 +10003,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -7638,7 +10024,7 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="13" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -7659,7 +10045,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="13" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -7680,7 +10066,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="13" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -7701,7 +10087,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="13" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -7722,7 +10108,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="13" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
@@ -7743,7 +10129,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -7764,7 +10150,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
@@ -7785,7 +10171,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>47</v>
       </c>
@@ -7806,7 +10192,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -7827,7 +10213,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
@@ -7848,7 +10234,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
         <v>52</v>
       </c>
@@ -7869,7 +10255,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="21" t="s">
         <v>6</v>
       </c>
@@ -7890,7 +10276,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -7911,7 +10297,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
@@ -7932,7 +10318,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -7953,7 +10339,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="20" t="s">
         <v>406</v>
       </c>
@@ -7972,7 +10358,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
@@ -7993,7 +10379,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -8014,7 +10400,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
         <v>9</v>
       </c>
@@ -8035,7 +10421,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="13" customFormat="1">
       <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
@@ -8054,7 +10440,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
@@ -8075,7 +10461,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
@@ -8096,7 +10482,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
         <v>2</v>
       </c>
@@ -8119,7 +10505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>303</v>
@@ -8159,17 +10545,17 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -8189,7 +10575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
@@ -8209,7 +10595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8229,7 +10615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
         <v>60</v>
       </c>
@@ -8247,7 +10633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -8267,7 +10653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
@@ -8287,7 +10673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
@@ -8307,7 +10693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
@@ -8327,7 +10713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -8347,7 +10733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -8367,7 +10753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
         <v>63</v>
       </c>
@@ -8387,7 +10773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
@@ -8427,16 +10813,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8456,7 +10842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -8476,7 +10862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -8494,7 +10880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -8514,7 +10900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8534,7 +10920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -8554,7 +10940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -8574,7 +10960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -8594,7 +10980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
@@ -8606,7 +10992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -8626,7 +11012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -8646,7 +11032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -8686,15 +11072,15 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="6" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8714,7 +11100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -8734,7 +11120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -8754,7 +11140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -8772,7 +11158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8792,7 +11178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -8812,7 +11198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -8832,7 +11218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -8852,7 +11238,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -8872,7 +11258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -8892,7 +11278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -8912,7 +11298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>85</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="SKIN" sheetId="20" r:id="rId20"/>
     <sheet name="MALIGNANT MESOTHELIOMA" sheetId="22" r:id="rId21"/>
     <sheet name="GALLBLADDER" sheetId="23" r:id="rId22"/>
+    <sheet name="STOMACH (GASTRIC)" sheetId="24" r:id="rId23"/>
+    <sheet name="SOFT TISSUE SARCOMA" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="559">
   <si>
     <t>Title</t>
   </si>
@@ -1579,7 +1581,166 @@
     <t xml:space="preserve">Weight &amp; Activity </t>
   </si>
   <si>
-    <t>PAGE DOESN'T EXIST YET (/causes-prevention/risk-factors/weight-activity)</t>
+    <t>Gastric Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gastric/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gastric/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Stomach (Gastric) Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=9563172&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/stomachcancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Stomach (Gastric) Cancer</t>
+  </si>
+  <si>
+    <t>http://preview.cancer.gov/cancertopics/treatment/types/targeted-therapies</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/treatment/types/targeted-therapies/targeted-therapies-fact-sheet</t>
+  </si>
+  <si>
+    <t>Targeted Cancer Therapies</t>
+  </si>
+  <si>
+    <t>Stomach (Gastric) Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/gastric/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/gastric/HealthProfessional</t>
+  </si>
+  <si>
+    <t>PAGE DOES NOT EXIST YET: [cancer.gov/about-cancer/causes-prevention/risk-factors/infectious-agents]</t>
+  </si>
+  <si>
+    <t>http://preview.cancer.gov/cancertopics/causes-prevention/risk-factors/</t>
+  </si>
+  <si>
+    <t>PAGE DOESN'T EXIST YET [cancer.gov/cancertopics/causes-prevention/risk-factors/weight-activity)</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/causes-prevention/risk-factors/infectious-agents/h-pylori-fact-sheet</t>
+  </si>
+  <si>
+    <t>Helicobacter pylori and Cancer</t>
+  </si>
+  <si>
+    <t>Stomach (Gastric) Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/gastric/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/gastric/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Screen for Stomach (Gastric) Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=9234069&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/diagnosis-staging/understanding-lab-tests-fact-sheet</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/stomach.html</t>
+  </si>
+  <si>
+    <t>Adult Soft Tissue Sarcoma Treatment</t>
+  </si>
+  <si>
+    <t>Childhood Soft Tissue Sarcoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adult-soft-tissue-sarcoma/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adult-soft-tissue-sarcoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Stromal Tumors Treatment</t>
+  </si>
+  <si>
+    <t>Childhood Rhabdomyosarcoma Treatment</t>
+  </si>
+  <si>
+    <t>Kaposi Sarcoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/kaposis/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/kaposis/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childrhabdomyosarcoma/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childrhabdomyosarcoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-soft-tissue-sarcoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/child-soft-tissue-sarcoma/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gist/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gist/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Adult Soft Tissue Sarcoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10223845&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Soft Tissue Sarcoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/softtissuesarcoma</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Gastrointestinal Stromal Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/GIST</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Rhabdomyosarcoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/rhabdomyosarcoma</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Kaposi Sarcoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/kaposi-sarcoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/causes-prevention/risk-factors/infectious-agents/hiv-fact-sheet</t>
+  </si>
+  <si>
+    <t>HIV Infection and Cancer Risk</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Kaposi Sarcoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8001163&amp;vers=1</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1690,6 +1851,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3A5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3A5FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1715,7 +1888,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="323">
+  <cellStyleXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2039,8 +2212,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2100,8 +2325,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="323">
+  <cellStyles count="375">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2312,6 +2539,32 @@
     <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2424,6 +2677,32 @@
     <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2760,10 +3039,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2776,7 +3055,7 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="32">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3032,8 +3311,8 @@
       <c r="E13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>41</v>
+      <c r="F13" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3292,8 +3571,8 @@
       <c r="E26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>41</v>
+      <c r="F26" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3588,8 +3867,8 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3600,7 +3879,7 @@
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +3959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -3780,7 +4059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
@@ -3798,7 +4077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -3816,7 +4095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -3834,7 +4113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -3852,7 +4131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -3870,7 +4149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
@@ -3888,7 +4167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -3906,7 +4185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -3920,11 +4199,11 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5">
+      <c r="F17" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -3938,11 +4217,11 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5">
+      <c r="F18" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -3956,8 +4235,8 @@
       <c r="E19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
-        <v>41</v>
+      <c r="F19" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3996,8 +4275,8 @@
       <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
-        <v>41</v>
+      <c r="F21" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4093,7 +4372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -4153,7 +4432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="31.5">
+    <row r="30" spans="1:6" ht="30">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -4193,7 +4472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4250,7 +4529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4262,7 +4541,7 @@
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4302,7 +4581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4322,7 +4601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -4376,8 +4655,8 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
+      <c r="F6" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4400,7 +4679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
@@ -4420,7 +4699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -4496,7 +4775,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4508,7 +4787,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4548,7 +4827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -4568,7 +4847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="15" t="s">
         <v>313</v>
       </c>
@@ -4646,7 +4925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="15" t="s">
         <v>320</v>
       </c>
@@ -4680,8 +4959,8 @@
       <c r="E9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>41</v>
+      <c r="F9" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4698,8 +4977,8 @@
       <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>41</v>
+      <c r="F10" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1">
@@ -4742,7 +5021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A13" s="14" t="s">
         <v>329</v>
       </c>
@@ -4762,7 +5041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="14" t="s">
         <v>330</v>
       </c>
@@ -4780,7 +5059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14" t="s">
         <v>331</v>
       </c>
@@ -4812,8 +5091,8 @@
       <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>41</v>
+      <c r="F16" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4830,7 +5109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A18" s="14" t="s">
         <v>310</v>
       </c>
@@ -4850,7 +5129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -4870,7 +5149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A20" s="14" t="s">
         <v>317</v>
       </c>
@@ -4890,7 +5169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A21" s="14" t="s">
         <v>323</v>
       </c>
@@ -4927,7 +5206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:F17"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4939,7 +5218,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4979,7 +5258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="16" t="s">
         <v>356</v>
       </c>
@@ -5035,7 +5314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A6" s="18" t="s">
         <v>365</v>
       </c>
@@ -5055,7 +5334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="16" t="s">
         <v>364</v>
       </c>
@@ -5149,8 +5428,8 @@
       <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>41</v>
+      <c r="F11" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5213,7 +5492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A15" s="18" t="s">
         <v>365</v>
       </c>
@@ -5290,7 +5569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5302,7 +5581,7 @@
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5362,7 +5641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -5382,7 +5661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="15" t="s">
         <v>377</v>
       </c>
@@ -5400,7 +5679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="15" t="s">
         <v>378</v>
       </c>
@@ -5478,7 +5757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="15" t="s">
         <v>386</v>
       </c>
@@ -5496,7 +5775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="15" t="s">
         <v>387</v>
       </c>
@@ -5537,7 +5816,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="C13" s="15">
         <v>899999</v>
@@ -5548,8 +5827,8 @@
       <c r="E13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>41</v>
+      <c r="F13" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1">
@@ -5572,7 +5851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14" t="s">
         <v>401</v>
       </c>
@@ -5624,8 +5903,8 @@
       <c r="E17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>41</v>
+      <c r="F17" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5682,7 +5961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A21" s="14" t="s">
         <v>2</v>
       </c>
@@ -5702,7 +5981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="22" spans="1:6" s="5" customFormat="1">
       <c r="A22" s="14" t="s">
         <v>382</v>
       </c>
@@ -5815,9 +6094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5830,7 +6109,7 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="32">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5870,7 +6149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="3" spans="1:6" s="5" customFormat="1">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -5924,8 +6203,8 @@
       <c r="E5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>41</v>
+      <c r="F5" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1">
@@ -6000,11 +6279,11 @@
       <c r="E9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="31.5">
+      <c r="F9" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
@@ -6018,11 +6297,11 @@
       <c r="E10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="31.5">
+      <c r="F10" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A11" s="18" t="s">
         <v>420</v>
       </c>
@@ -6036,8 +6315,8 @@
       <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>41</v>
+      <c r="F11" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1">
@@ -6112,7 +6391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="31.5">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
@@ -6189,7 +6468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:F9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6284,7 +6563,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="C5" s="15">
         <v>899999</v>
@@ -6295,8 +6574,8 @@
       <c r="E5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>41</v>
+      <c r="F5" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6394,7 +6673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6454,7 +6733,9 @@
       <c r="C3" s="11"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
@@ -6501,7 +6782,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="C6" s="15">
         <v>899999</v>
@@ -6512,8 +6793,8 @@
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>41</v>
+      <c r="F6" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6611,7 +6892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:F11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6746,7 +7027,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="C7" s="15">
         <v>899999</v>
@@ -6757,8 +7038,8 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>41</v>
+      <c r="F7" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6856,7 +7137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F10"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6969,7 +7250,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="C6" s="15">
         <v>899999</v>
@@ -6980,8 +7261,8 @@
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>41</v>
+      <c r="F6" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7080,7 +7361,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7093,7 +7374,7 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="32">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -7173,7 +7454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
         <v>203</v>
       </c>
@@ -7251,7 +7532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="16" t="s">
         <v>209</v>
       </c>
@@ -7307,8 +7588,8 @@
       <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>41</v>
+      <c r="F11" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7351,7 +7632,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="14" t="s">
         <v>213</v>
       </c>
@@ -7405,7 +7686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="15" t="s">
         <v>199</v>
       </c>
@@ -7445,7 +7726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="15" t="s">
         <v>209</v>
       </c>
@@ -7485,7 +7766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5">
+    <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
         <v>211</v>
       </c>
@@ -7541,7 +7822,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7809,8 +8090,8 @@
       <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>41</v>
+      <c r="F14" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>477</v>
@@ -7884,8 +8165,8 @@
       <c r="E18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>41</v>
+      <c r="F18" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8045,7 +8326,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8205,8 +8486,8 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>41</v>
+      <c r="F8" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8214,7 +8495,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="C9" s="15">
         <v>899999</v>
@@ -8225,8 +8506,8 @@
       <c r="E9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>41</v>
+      <c r="F9" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8342,15 +8623,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
@@ -8457,7 +8738,7 @@
         <v>504</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="15" t="s">
@@ -8466,8 +8747,8 @@
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>41</v>
+      <c r="F6" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8475,7 +8756,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>519</v>
       </c>
       <c r="C7" s="15">
         <v>899999</v>
@@ -8486,8 +8767,8 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>41</v>
+      <c r="F7" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8565,6 +8846,792 @@
         <v>44</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="88.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="42.1640625" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8586,7 +9653,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8599,7 +9666,7 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="32">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8753,8 +9820,8 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>41</v>
+      <c r="F8" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8909,7 +9976,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8922,7 +9989,7 @@
     <col min="6" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="32">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -9081,8 +10148,8 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>41</v>
+      <c r="F8" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -9247,7 +10314,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9260,7 +10327,7 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="32">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -9414,8 +10481,8 @@
       <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>41</v>
+      <c r="F8" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9610,8 +10677,8 @@
       <c r="E18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>41</v>
+      <c r="F18" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9708,8 +10775,8 @@
       <c r="E23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>41</v>
+      <c r="F23" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9744,8 +10811,8 @@
       <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>41</v>
+      <c r="F25" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9967,7 +11034,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9982,7 +11049,7 @@
     <col min="8" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10019,8 +11086,8 @@
       <c r="E2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
+      <c r="F2" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="G2" s="12"/>
     </row>
@@ -10353,8 +11420,8 @@
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>41</v>
+      <c r="F18" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -10416,8 +11483,8 @@
       <c r="E21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>41</v>
+      <c r="F21" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="G21" s="12"/>
     </row>
@@ -10435,8 +11502,8 @@
       <c r="E22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>41</v>
+      <c r="F22" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -10456,8 +11523,8 @@
       <c r="E23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>41</v>
+      <c r="F23" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -10542,7 +11609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10555,7 +11622,7 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="32">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -10595,7 +11662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10689,8 +11756,8 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>41</v>
+      <c r="F7" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10733,7 +11800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
@@ -10810,7 +11877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10822,7 +11889,7 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10862,7 +11929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -10956,8 +12023,8 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
+      <c r="F7" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11069,7 +12136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11080,7 +12147,7 @@
     <col min="5" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11214,8 +12281,8 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
+      <c r="F7" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11258,7 +12325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,10 @@
     <sheet name="GALLBLADDER" sheetId="23" r:id="rId22"/>
     <sheet name="STOMACH (GASTRIC)" sheetId="24" r:id="rId23"/>
     <sheet name="SOFT TISSUE SARCOMA" sheetId="25" r:id="rId24"/>
+    <sheet name="GESTATIONAL TROPHOBLASTIC" sheetId="26" r:id="rId25"/>
+    <sheet name="KIDNEY" sheetId="27" r:id="rId26"/>
+    <sheet name="PANCREATIC" sheetId="28" r:id="rId27"/>
+    <sheet name="MULTIPLE MYELOMA" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="617">
   <si>
     <t>Title</t>
   </si>
@@ -1741,6 +1745,180 @@
   </si>
   <si>
     <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8001163&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Gestational Trophoblastic Disease Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gestationaltrophoblastic/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gestationaltrophoblastic/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat GestationalTrophoblastic Disease</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10328984&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs to Treat Gestational Trophoblastic Disease</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/gestationaldisease</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/what-is-cancer/metastatic-fact-sheet</t>
+  </si>
+  <si>
+    <t>Renal Cell Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/renalcell/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/renalcell/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/transitionalcell/Patient</t>
+  </si>
+  <si>
+    <t>Transitional Cell Cancer of the Renal Pelvis and Ureter Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/transitionalcell/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/wilms/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Wilms Tumor and Other Childhood Kidney Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/wilms/Patient</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Kidney (Renal Cell) Cancer</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Transitional Cell Cancer of the Renal Pelvis and Ureter</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6085276&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8029860&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/kidneycancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Kidney (Renal Cell) Cancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Wilms Tumor and Other Childhood Kidney Cancers</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/wilmstumor</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/biological</t>
+  </si>
+  <si>
+    <t>Biological Therapies for Cancer</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET [cancer.gov/about-cancer/treatment/types/biological-therapies]</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/genetics/kidney/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Genetics of Kidney Cancer (Renal Cell Cancer)</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/kidrp.html</t>
+  </si>
+  <si>
+    <t>Pancreatic Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/pancreatic/Patient</t>
+  </si>
+  <si>
+    <t>Pancreatic Neuroendocrine Tumors (Islet Cell Tumors) Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/isletcell/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/pancreatic/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/isletcell/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Pancreatic Cancer</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Pancreatic Neuroendocrine Tumors (Islet Cell Tumors)</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6280913&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6085172&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/pancreaticcancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Pancreatic Cancer</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET [www.cancer.gov/about-cancer/causes-prevention/risk-factors/tobacco]</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/pancreas.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/myeloma/Patient</t>
+  </si>
+  <si>
+    <t>Plasma Cell Neoplasms (Including Multiple Myeloma) Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/myeloma/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10298787&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Multiple Myeloma and Other Plasma Cell Neoplasms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment </t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/multiplemyeloma</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Multiple Myeloma and Other Plasma Cell Neoplasms</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/factsheet/Therapy/bone-marrow-transplant</t>
+  </si>
+  <si>
+    <t>Bone Marrow Transplantation and Peripheral Blood Stem Transplantation</t>
+  </si>
+  <si>
+    <t>Bone Marrow Transplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGE DOESN'T EXIST YET </t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/mulmy.html</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +2066,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="375">
+  <cellStyleXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2264,8 +2442,182 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2327,8 +2679,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="375">
+  <cellStyles count="549">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2565,6 +2922,93 @@
     <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2703,6 +3147,93 @@
     <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3042,7 +3573,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4525,11 +5056,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4620,34 +5151,32 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>6158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
+      <c r="A5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -4655,62 +5184,62 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>899999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>6145</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3933</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="5" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="C9" s="5">
-        <v>2840</v>
+        <v>3933</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>37</v>
@@ -4719,43 +5248,63 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10">
-        <v>1654</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2840</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>1654</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1541</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4772,10 +5321,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4905,72 +5454,72 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1">
+      <c r="A8" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C8" s="14">
         <v>2083</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
-        <v>64</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="15">
-        <v>899999</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>39</v>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C10" s="15">
+        <v>899999</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -4981,38 +5530,36 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="14">
-        <v>899754</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C12" s="14">
-        <v>814107</v>
+        <v>899754</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>44</v>
@@ -5021,15 +5568,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="30">
+    <row r="13" spans="1:6" s="5" customFormat="1">
       <c r="A13" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C13" s="14">
-        <v>15596</v>
+        <v>814107</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>29</v>
@@ -5038,17 +5585,19 @@
         <v>44</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A14" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="14">
+        <v>15596</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
@@ -5061,10 +5610,10 @@
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="14" t="s">
@@ -5077,70 +5626,68 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>331</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="14" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>39</v>
+      <c r="F16" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="30">
-      <c r="A18" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1553</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A19" s="14" t="s">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="C19" s="14">
-        <v>2840</v>
+        <v>1553</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>37</v>
@@ -5151,19 +5698,19 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A20" s="14" t="s">
-        <v>317</v>
+        <v>2</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="C20" s="14">
-        <v>1609</v>
+        <v>2840</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>40</v>
@@ -5171,21 +5718,41 @@
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A21" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1609</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="30">
+      <c r="A22" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="14">
         <v>1513</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5569,7 +6136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6092,11 +6659,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6227,70 +6794,70 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C8" s="14">
         <v>3016</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
+      <c r="F8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1">
-      <c r="A9" s="12" t="s">
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="30">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="12" t="s">
         <v>29</v>
       </c>
@@ -6302,13 +6869,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="30">
-      <c r="A11" s="18" t="s">
-        <v>420</v>
+      <c r="A11" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
@@ -6319,90 +6886,88 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A12" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1">
+      <c r="A13" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B13" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C13" s="14">
         <v>5570</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="F13" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
+      <c r="F14" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1">
-      <c r="A15" s="18" t="s">
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1">
+      <c r="A16" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C16" s="14">
         <v>1312</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="30">
-      <c r="A16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="14">
-        <v>2840</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>37</v>
@@ -6411,21 +6976,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1">
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A17" s="18" t="s">
-        <v>415</v>
+        <v>2</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>417</v>
+        <v>72</v>
       </c>
       <c r="C17" s="14">
-        <v>2935</v>
+        <v>2840</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>40</v>
@@ -6433,21 +6998,41 @@
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
       <c r="A18" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2935</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1">
+      <c r="A19" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B19" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C19" s="14">
         <v>2886</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6464,11 +7049,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6539,34 +7124,32 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>39</v>
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>519</v>
+        <v>67</v>
       </c>
       <c r="C5" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
@@ -6574,63 +7157,63 @@
       <c r="E5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C7" s="15">
         <v>6145</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1654</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>40</v>
@@ -6638,21 +7221,41 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="15">
         <v>1541</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6669,11 +7272,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6758,34 +7361,32 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>39</v>
+      <c r="A5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>519</v>
+        <v>67</v>
       </c>
       <c r="C6" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
@@ -6793,63 +7394,63 @@
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="15">
         <v>6145</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>63</v>
+        <v>434</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1654</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>40</v>
@@ -6857,21 +7458,41 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="15">
         <v>1541</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6888,11 +7509,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7003,34 +7624,32 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6158</v>
-      </c>
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>519</v>
+        <v>67</v>
       </c>
       <c r="C7" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
@@ -7038,63 +7657,63 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="15">
         <v>6145</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1654</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>40</v>
@@ -7102,21 +7721,41 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="15">
         <v>1541</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7133,11 +7772,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7226,34 +7865,32 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="15">
-        <v>6158</v>
-      </c>
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>519</v>
+        <v>67</v>
       </c>
       <c r="C6" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
@@ -7261,63 +7898,63 @@
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="15">
         <v>6145</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1654</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>40</v>
@@ -7325,21 +7962,41 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="15">
         <v>1541</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7356,12 +8013,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7532,55 +8189,53 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C10" s="16">
         <v>5913</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>29</v>
@@ -7588,59 +8243,59 @@
       <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="16">
-        <v>5913</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="15">
+        <v>899999</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C13" s="16">
-        <v>6145</v>
+        <v>5913</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="C14" s="16">
-        <v>13674</v>
+        <v>6145</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>29</v>
@@ -7649,52 +8304,52 @@
         <v>44</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="B15" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="16">
+        <v>13674</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="F16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C17" s="16">
         <v>3341</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="16">
-        <v>3357</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>33</v>
@@ -7706,15 +8361,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="16">
-        <v>2368</v>
+        <v>3357</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>33</v>
@@ -7726,38 +8381,38 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6">
       <c r="A19" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="16">
-        <v>5901</v>
+        <v>2368</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="15" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="C20" s="16">
-        <v>1654</v>
+        <v>5901</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>43</v>
@@ -7767,42 +8422,62 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
-        <v>211</v>
+      <c r="A21" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="C21" s="16">
-        <v>2419</v>
+        <v>1654</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15" t="s">
-        <v>85</v>
+      <c r="A22" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="C22" s="16">
-        <v>1541</v>
+        <v>2419</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1541</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7819,10 +8494,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7865,7 +8540,7 @@
       <c r="B2" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -7883,7 +8558,7 @@
       <c r="B3" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
@@ -7901,7 +8576,7 @@
       <c r="B4" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
@@ -7919,7 +8594,7 @@
       <c r="B5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -7937,7 +8612,7 @@
       <c r="B6" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
@@ -7955,7 +8630,7 @@
       <c r="B7" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
@@ -8041,86 +8716,86 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
-        <v>471</v>
+      <c r="A12" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>566</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="15" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C13" s="11"/>
+        <v>470</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>473</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>477</v>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>475</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>41</v>
+      <c r="F15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="15" t="s">
@@ -8135,80 +8810,80 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>484</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="C18" s="15"/>
+        <v>486</v>
+      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="B19" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="20" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>40</v>
+      <c r="F20" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C21" s="15"/>
+        <v>453</v>
+      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="15" t="s">
         <v>33</v>
       </c>
@@ -8221,12 +8896,12 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="C22" s="15"/>
+        <v>456</v>
+      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="15" t="s">
         <v>33</v>
       </c>
@@ -8239,12 +8914,12 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="15" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="15"/>
+        <v>459</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="15" t="s">
         <v>33</v>
       </c>
@@ -8257,17 +8932,17 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="15" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="C24" s="28"/>
       <c r="D24" s="15" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>40</v>
@@ -8275,17 +8950,17 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="15" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C25" s="15"/>
+        <v>472</v>
+      </c>
+      <c r="C25" s="28"/>
       <c r="D25" s="15" t="s">
-        <v>391</v>
+        <v>50</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>40</v>
@@ -8293,19 +8968,37 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8322,11 +9015,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:F10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8453,53 +9146,51 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6158</v>
-      </c>
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>498</v>
+        <v>63</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="C8" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6158</v>
+      </c>
       <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>64</v>
+        <v>498</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="C9" s="15">
-        <v>899999</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="15" t="s">
         <v>29</v>
       </c>
@@ -8512,54 +9203,54 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="15">
         <v>6145</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2840</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>37</v>
@@ -8570,19 +9261,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="15">
-        <v>1654</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2840</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>40</v>
@@ -8590,21 +9281,41 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C15" s="15">
         <v>1541</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8621,11 +9332,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8714,53 +9425,51 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>63</v>
+      <c r="A5" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>39</v>
+        <v>566</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>504</v>
+        <v>63</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="C6" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>64</v>
+        <v>504</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="C7" s="15">
-        <v>899999</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
@@ -8773,57 +9482,57 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="15">
         <v>6145</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1654</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>40</v>
@@ -8831,21 +9540,41 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="15">
         <v>1541</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8866,7 +9595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:F13"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9179,9 +9908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9646,14 +10375,1340 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="64.1640625" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="2" max="2" width="85" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9785,34 +11840,32 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>39</v>
+      <c r="A7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>29</v>
@@ -9820,96 +11873,96 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="15">
         <v>5544</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="15">
-        <v>13674</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="B11" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="15">
+        <v>13674</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="15">
-        <v>3394</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="C13" s="15">
-        <v>2840</v>
+        <v>3394</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>37</v>
@@ -9920,41 +11973,61 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" s="15">
-        <v>1654</v>
+        <v>2840</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C16" s="15">
         <v>2856</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9971,12 +12044,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10112,35 +12185,33 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>39</v>
+      <c r="A7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>29</v>
@@ -10148,41 +12219,41 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="14" t="s">
-        <v>85</v>
+      <c r="A9" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" s="15">
-        <v>6145</v>
+        <v>899999</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="14" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="C10" s="15">
-        <v>13674</v>
+        <v>6145</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>29</v>
@@ -10191,57 +12262,57 @@
         <v>44</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="15">
+        <v>13674</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2434</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="15">
-        <v>1055</v>
+        <v>2434</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>33</v>
@@ -10255,20 +12326,20 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>63</v>
+      <c r="A14" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="C14" s="15">
-        <v>1654</v>
+        <v>1055</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>40</v>
@@ -10276,25 +12347,46 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="15" t="s">
-        <v>85</v>
+      <c r="A15" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="15">
-        <v>1541</v>
+        <v>1654</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11030,11 +13122,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11239,35 +13331,33 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2190</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="12"/>
+      <c r="A10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12">
-        <v>2203</v>
+        <v>2190</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>50</v>
@@ -11276,226 +13366,228 @@
         <v>43</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2203</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>2301</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="12">
         <v>4980</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21" t="s">
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C15" s="21">
         <v>4924</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8">
-        <v>8036</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8036</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <v>3853</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="12" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C18" s="12">
         <v>4162</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="20" t="s">
+      <c r="E18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B19" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="F19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="8">
         <v>4031</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="12">
-        <v>4052</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="12">
+        <v>4052</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" s="13" customFormat="1">
-      <c r="A22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
         <v>29</v>
       </c>
@@ -11507,87 +13599,106 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:7" s="13" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <v>6835</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2840</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="9"/>
+      <c r="D24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2840</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C26" s="9">
         <v>2898</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="D26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:G26">
@@ -11605,11 +13716,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11721,34 +13832,32 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>39</v>
+      <c r="A6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
@@ -11756,62 +13865,62 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="15">
         <v>6145</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="15">
         <v>3374</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="15">
-        <v>2898</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>37</v>
@@ -11820,21 +13929,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="15" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" s="15">
-        <v>1654</v>
+        <v>2898</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>40</v>
@@ -11842,21 +13951,41 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C13" s="15">
         <v>1541</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11873,11 +14002,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11910,212 +14039,232 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="16">
         <v>873868</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="16">
         <v>79693</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="16">
         <v>6835</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="16">
         <v>706565</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="15">
         <v>899999</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="F8" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="15">
         <v>6145</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="E9" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="16">
         <v>5235</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="16">
         <v>689684</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="15">
         <v>1541</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12132,11 +14281,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12246,34 +14395,32 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6">
-        <v>6158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
+      <c r="A6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -12281,107 +14428,127 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>899999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>6145</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>5003</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C11" s="24">
         <v>2840</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11">
-        <v>1654</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>1654</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1541</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="21" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="24" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -35,6 +35,9 @@
     <sheet name="KIDNEY" sheetId="27" r:id="rId26"/>
     <sheet name="PANCREATIC" sheetId="28" r:id="rId27"/>
     <sheet name="MULTIPLE MYELOMA" sheetId="29" r:id="rId28"/>
+    <sheet name="NEUROBLASTOMA" sheetId="30" r:id="rId29"/>
+    <sheet name="OVARIAN" sheetId="31" r:id="rId30"/>
+    <sheet name="PHEOCHROMOCYTOMA" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="664">
   <si>
     <t>Title</t>
   </si>
@@ -1919,6 +1922,147 @@
   </si>
   <si>
     <t>http://seer.cancer.gov/statfacts/html/mulmy.html</t>
+  </si>
+  <si>
+    <t>Neuroblastoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/neuroblastoma/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/neuroblastoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Neuroblastoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/neuroblastoma</t>
+  </si>
+  <si>
+    <t>Neuroblastoma Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/neuroblastoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/neuroblastoma/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13852213</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Neuroblastoma</t>
+  </si>
+  <si>
+    <t>Ovarian Epithelial, Fallopian Tube, and Primary Peritoneal Cancer Treatment</t>
+  </si>
+  <si>
+    <t>Ovarian Germ Cell Tumors Treatment</t>
+  </si>
+  <si>
+    <t>Ovarian Low Malignant Potential Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ovarianepithelial/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ovarian-germ-cell/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ovarian-low-malignant-potential/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ovarianepithelial/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ovarian-germ-cell/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/ovarian-low-malignant-potential/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Ovarian Epithelial, Fallopian Tube, and Primary Peritoneal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/ovariancancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/treatment/types/biological-therapies/angiogenesis-inhibitors-fact-sheet</t>
+  </si>
+  <si>
+    <t>Angiogenesis Inhibitors</t>
+  </si>
+  <si>
+    <t>Ovarian Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/ovarian/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/ovarian/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Can this be in the main PDQ Genetics Information slot if this summary will live under breast cancer?</t>
+  </si>
+  <si>
+    <t>Hormones</t>
+  </si>
+  <si>
+    <t>PAGE DOESN'T EXIST YET [cancer.gov/about-cancer/causes-prevention/risk-factors/hormones]</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/causes-prevention/risk-factors/hormones/mht-fact-sheet</t>
+  </si>
+  <si>
+    <t>Menopausal Hormone Therapy and Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/causes-prevention/risk-factors/hormones/oral-contraceptives-fact-sheet</t>
+  </si>
+  <si>
+    <t>Oral Contraceptives and Cancer Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIS PAGE WILL BE THE SHELL FOR RISK FACTOR: http://www.cancer.gov/cancertopics/pdq/genetics </t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/genetics/brca-fact-sheet</t>
+  </si>
+  <si>
+    <t>BRCA1 and BRCA2: Cancer Risk and Genetic Testing</t>
+  </si>
+  <si>
+    <t>Ovarian Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/ovarian/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/ovarian/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Prostate, Lung, Colorectal, and Ovarian Cancer Screening Trial</t>
+  </si>
+  <si>
+    <t>http://prevention.cancer.gov/plco</t>
+  </si>
+  <si>
+    <t>Search for Clinical Trials</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/ovary.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/pheochromocytoma/Patient</t>
+  </si>
+  <si>
+    <t>Pheochromocytoma and Paraganglioma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/pheochromocytoma/HealthProfessional</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2210,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="549">
+  <cellStyleXfs count="627">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2616,8 +2760,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2684,8 +2906,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="549">
+  <cellStyles count="627">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3009,6 +3233,45 @@
     <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3234,6 +3497,45 @@
     <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11035,7 +11337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:F18"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11398,9 +11700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11687,6 +11989,313 @@
         <v>44</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12028,6 +12637,769 @@
         <v>44</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+    <col min="2" max="2" width="89" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="84.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="24" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="25" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="NEUROBLASTOMA" sheetId="30" r:id="rId29"/>
     <sheet name="OVARIAN" sheetId="31" r:id="rId30"/>
     <sheet name="PHEOCHROMOCYTOMA" sheetId="32" r:id="rId31"/>
+    <sheet name="PARATHYROID" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="670">
   <si>
     <t>Title</t>
   </si>
@@ -1831,9 +1832,6 @@
     <t>Biological Therapies for Cancer</t>
   </si>
   <si>
-    <t>DOESN'T EXIST YET [cancer.gov/about-cancer/treatment/types/biological-therapies]</t>
-  </si>
-  <si>
     <t>http://www.cancer.gov/cancertopics/pdq/genetics/kidney/HealthProfessional</t>
   </si>
   <si>
@@ -2063,6 +2061,27 @@
   </si>
   <si>
     <t>http://www.cancer.gov/cancertopics/pdq/treatment/pheochromocytoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/parathyroid/Patient</t>
+  </si>
+  <si>
+    <t>Parathyroid Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/parathyroid/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10605845&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Parathyroid Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/treatment/types/radiation/radiation-fact-sheet</t>
+  </si>
+  <si>
+    <t>Radiation Therapy for Cancer</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2209,8 +2228,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="627">
+  <cellStyleXfs count="663">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2838,8 +2896,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2908,8 +3002,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="627">
+  <cellStyles count="663">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3272,6 +3371,24 @@
     <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3536,6 +3653,24 @@
     <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7815,7 +7950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9893,11 +10028,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F5"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9985,35 +10120,37 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>515</v>
+        <v>134</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="15" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>39</v>
@@ -10021,14 +10158,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>321</v>
+        <v>515</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C7" s="15"/>
+        <v>516</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="15" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>43</v>
@@ -10039,17 +10176,17 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
-        <v>523</v>
+        <v>321</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="C8" s="28"/>
+        <v>518</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>39</v>
@@ -10057,30 +10194,30 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>213</v>
+        <v>526</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>527</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -10092,47 +10229,47 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15" t="s">
+        <v>213</v>
+      </c>
       <c r="B11" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="15" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
-        <v>505</v>
-      </c>
+      <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="15" t="s">
-        <v>33</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>37</v>
@@ -10143,17 +10280,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="15" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>40</v>
@@ -10161,14 +10298,14 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="15" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>43</v>
@@ -10179,19 +10316,37 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10208,11 +10363,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10443,51 +10598,53 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C15" s="15">
         <v>6158</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C15" s="28"/>
       <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
@@ -10495,53 +10652,53 @@
         <v>43</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C17" s="15">
         <v>6145</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="15" t="s">
@@ -10556,10 +10713,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="15" t="s">
@@ -10574,10 +10731,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="15" t="s">
@@ -10592,10 +10749,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="15" t="s">
@@ -10610,14 +10767,14 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="15" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>37</v>
@@ -10628,19 +10785,17 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="15">
-        <v>1654</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>40</v>
@@ -10648,21 +10803,41 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C25" s="15">
         <v>1541</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="D25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10679,11 +10854,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:F11"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10770,52 +10945,52 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>519</v>
+        <v>67</v>
       </c>
       <c r="C7" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
@@ -10823,85 +10998,105 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="15">
         <v>6145</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1654</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="15">
         <v>1541</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10922,7 +11117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:F21"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11081,20 +11276,22 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11179,7 +11376,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="15"/>
@@ -11264,10 +11461,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="15" t="s">
@@ -11333,11 +11530,11 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:F16"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11371,10 +11568,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>590</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>591</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
@@ -11389,10 +11586,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>592</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>593</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="15" t="s">
@@ -11427,10 +11624,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="15" t="s">
@@ -11445,10 +11642,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>597</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>598</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="15" t="s">
@@ -11463,10 +11660,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="15" t="s">
@@ -11480,139 +11677,141 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="15">
         <v>6158</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="F10" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="B11" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="15">
-        <v>899999</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C13" s="15">
         <v>6145</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="15" t="s">
@@ -11626,62 +11825,80 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C17" s="14">
         <v>2840</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1654</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C19" s="15">
         <v>1541</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F19" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11698,11 +11915,11 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:F15"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11736,10 +11953,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
@@ -11754,17 +11971,17 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>41</v>
@@ -11772,67 +11989,71 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>519</v>
       </c>
       <c r="C7" s="15">
-        <v>6158</v>
+        <v>899999</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
@@ -11840,74 +12061,72 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>519</v>
+        <v>65</v>
       </c>
       <c r="C8" s="15">
-        <v>899999</v>
+        <v>6145</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="15">
-        <v>6145</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>84</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>604</v>
+      </c>
       <c r="B10" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>41</v>
+        <v>605</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
-        <v>605</v>
+        <v>514</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>606</v>
+        <v>513</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>37</v>
@@ -11918,10 +12137,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="15" t="s">
@@ -11936,17 +12155,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="C13" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1654</v>
+      </c>
       <c r="D13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>40</v>
@@ -11954,41 +12175,21 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="15" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="15">
-        <v>1654</v>
+        <v>1541</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="15">
-        <v>1541</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12005,11 +12206,11 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:F14"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12043,10 +12244,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>617</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>618</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
@@ -12061,10 +12262,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="15" t="s">
@@ -12079,10 +12280,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>620</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>621</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="15" t="s">
@@ -12096,70 +12297,70 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>519</v>
+        <v>67</v>
       </c>
       <c r="C8" s="15">
-        <v>899999</v>
+        <v>6158</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>29</v>
@@ -12167,70 +12368,72 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>528</v>
+        <v>623</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>115</v>
+        <v>616</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>114</v>
+        <v>618</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="15" t="s">
@@ -12245,14 +12448,14 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>613</v>
+        <v>115</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>612</v>
+        <v>114</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>37</v>
@@ -12263,39 +12466,57 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C15" s="15">
         <v>1654</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14" t="s">
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="14" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12653,11 +12874,11 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12692,10 +12913,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
@@ -12710,10 +12931,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="15" t="s">
@@ -12728,10 +12949,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="15" t="s">
@@ -12766,10 +12987,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>658</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>659</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="14" t="s">
@@ -12784,10 +13005,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>637</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="14" t="s">
@@ -12801,47 +13022,49 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>638</v>
-      </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>41</v>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>640</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>641</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="14" t="s">
@@ -12856,10 +13079,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>644</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>645</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="14" t="s">
@@ -12877,7 +13100,7 @@
         <v>288</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="14" t="s">
@@ -12892,10 +13115,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>653</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>654</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="14" t="s">
@@ -12910,10 +13133,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>656</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>657</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="14" t="s">
@@ -12929,7 +13152,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="15"/>
@@ -12942,10 +13165,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="15" t="s">
@@ -12960,10 +13183,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="15" t="s">
@@ -12978,10 +13201,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="15" t="s">
@@ -13033,18 +13256,18 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14" t="s">
-        <v>640</v>
+      <c r="A21" s="41" t="s">
+        <v>638</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="14" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>40</v>
@@ -13052,14 +13275,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="14" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>43</v>
@@ -13070,10 +13293,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="14" t="s">
@@ -13087,59 +13310,77 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B25" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E25" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>40</v>
+      <c r="F25" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F27" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13156,10 +13397,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13193,10 +13434,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
@@ -13231,10 +13472,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>658</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>659</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="14" t="s">
@@ -13245,6 +13486,287 @@
       </c>
       <c r="F4" s="14" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="42">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13254,14 +13776,14 @@
       <c r="B5" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -13327,12 +13849,12 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="C9" s="28"/>
+        <v>665</v>
+      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
@@ -13344,22 +13866,20 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2840</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="A10" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="25" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16040" tabRatio="655" firstSheet="36" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="BRAIN" sheetId="6" r:id="rId1"/>
@@ -39,6 +39,18 @@
     <sheet name="OVARIAN" sheetId="31" r:id="rId30"/>
     <sheet name="PHEOCHROMOCYTOMA" sheetId="32" r:id="rId31"/>
     <sheet name="PARATHYROID" sheetId="33" r:id="rId32"/>
+    <sheet name="PENILE" sheetId="34" r:id="rId33"/>
+    <sheet name="PITUITARY TUMOR" sheetId="35" r:id="rId34"/>
+    <sheet name="PROSTATE" sheetId="36" r:id="rId35"/>
+    <sheet name="SMALL INTESTINE" sheetId="37" r:id="rId36"/>
+    <sheet name="TESTICULAR" sheetId="38" r:id="rId37"/>
+    <sheet name="THYMOMA &amp; THYMIC CARCINOMA" sheetId="39" r:id="rId38"/>
+    <sheet name="THYROID" sheetId="40" r:id="rId39"/>
+    <sheet name="URETHRAL" sheetId="41" r:id="rId40"/>
+    <sheet name="UTERINE" sheetId="42" r:id="rId41"/>
+    <sheet name="VAGINAL" sheetId="43" r:id="rId42"/>
+    <sheet name="VULVAR" sheetId="44" r:id="rId43"/>
+    <sheet name="LANGERHANS CELL HISTIOCYTOSIS" sheetId="45" r:id="rId44"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -50,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="796">
   <si>
     <t>Title</t>
   </si>
@@ -2082,6 +2094,384 @@
   </si>
   <si>
     <t>Radiation Therapy for Cancer</t>
+  </si>
+  <si>
+    <t>Penile Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/penile/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/penile/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Penile Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10403383&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/penilecancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Penile Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/treatment/types/surgery/lasers-fact-sheet</t>
+  </si>
+  <si>
+    <t>Lasers in Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/pituitary/Patient</t>
+  </si>
+  <si>
+    <t>Pituitary Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/pituitary/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6193467&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Pituitary Tumors</t>
+  </si>
+  <si>
+    <t>Prostate Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/prostate/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/prostate/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Prostate Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6199488&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/prostatecancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Prostate Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/types/prostate/prostate-hormone-therapy-fact-sheet</t>
+  </si>
+  <si>
+    <t>Hormone Therapy for Prostate Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/publications/patient-education/understanding-prostate-cancer-treatment</t>
+  </si>
+  <si>
+    <t>Treatment Choices for Men With Early-Stage Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Cancer Vaccines</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/causes-prevention/vaccines-fact-sheet</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/treatment/types/surgery/cryosurgery-fact-sheet</t>
+  </si>
+  <si>
+    <t>Prostate Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/prostate/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/prostate/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/cam/prostatesupplements/Patient</t>
+  </si>
+  <si>
+    <t>Prostate Cancer, Nutrition, and Dietary Supplements</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/cam/prostatesupplements/healthprofessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6138004&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Prevent Prostate Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/genetics/prostate/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Genetics of Prostate Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/prostate/Patient</t>
+  </si>
+  <si>
+    <t>Prostate Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/prostate/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/types/prostate/psa-fact-sheet</t>
+  </si>
+  <si>
+    <t>Prostate-Specific Antigen (PSA) Test</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Screen for Prostate Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6175284&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Understanding Prostate Changes</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/screening/understanding-prostate-changes/</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/prost.html</t>
+  </si>
+  <si>
+    <t>Small Intestine Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/smallintestine/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/smallintestine/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/smint.html</t>
+  </si>
+  <si>
+    <t>Testicular Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/testicular/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/testicular/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Testicular Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13848549&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Testicular Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/testicularcancer</t>
+  </si>
+  <si>
+    <t>http://familial-testicular-cancer.cancer.gov/index.html</t>
+  </si>
+  <si>
+    <t>Familial Testicular Cancer</t>
+  </si>
+  <si>
+    <t>Testicular Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/testicular/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/testicular/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Understanding Laboratory Results</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/testis.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/thymoma/patient</t>
+  </si>
+  <si>
+    <t>Thymoma and Thymic Carcinoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/thymoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=10403490&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Thymoma and Thymic Carcinoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/thyroid/Patient</t>
+  </si>
+  <si>
+    <t>Thyroid Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/thyroid/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6200083&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Thyroid Cancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Thyroid Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/thyroidcancer</t>
+  </si>
+  <si>
+    <t>Radiation Therapy</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET [cancer.gov/cancertopics/treatment/types/radiation]</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/genetics/medullarythyroid/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Genetics of Endocrine and Neuroendocrine Neoplasias</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/causes-prevention/risk-factors/radiation/i-131</t>
+  </si>
+  <si>
+    <t>Get the Facts About Exposure to I-131 Radiation</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/thyro.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/urethral/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/urethral/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Urethral Cancer Treatment</t>
+  </si>
+  <si>
+    <t>Uterine Sarcoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/uterinesarcoma/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/uterinesarcoma/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/endometrial/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Endometrial Cancer Treatemtn</t>
+  </si>
+  <si>
+    <t>Endometrial Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/endometrial/Patient</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Endometrial Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6102305&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Uterine Sarcoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13853828</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Endometrial Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/endometrialcancer</t>
+  </si>
+  <si>
+    <t>Endometrial Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/endometrial/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/endometrial/HealthProfessional</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET [cancer.gov/cancertopics/causes-prevention/risk-factors/hormones]</t>
+  </si>
+  <si>
+    <t>Endometrial Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/endometrial/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/endometrial/HealthProfessional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDQ Screening Information </t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/corp.html</t>
+  </si>
+  <si>
+    <t>Vaginal Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/vaginal/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/vaginal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Vaginal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/vaginalcancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/causes-prevention/risk-factors/hormones/des-fact-sheet</t>
+  </si>
+  <si>
+    <t>Diethylstilbestrol (DES) and Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/vulvar/Patient</t>
+  </si>
+  <si>
+    <t>Vulvar Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/vulvar/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/vulvarcancer</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Vulvar Cancer</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/vulva.html</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/lchistio/Patient</t>
+  </si>
+  <si>
+    <t>Langerhans Cell Histiocytosis Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/lchistio/HealthProfessional</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2658,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="663">
+  <cellStyleXfs count="925">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2932,8 +3322,270 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3007,8 +3659,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="663">
+  <cellStyles count="925">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3389,6 +4044,137 @@
     <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3671,6 +4457,137 @@
     <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10858,7 +11775,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="2" sqref="C2 C4 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10897,7 +11814,7 @@
       <c r="B2" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -10933,7 +11850,7 @@
       <c r="B4" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
@@ -11029,7 +11946,7 @@
       <c r="B9" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
@@ -13400,7 +14317,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13679,9 +14596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C10" activeCellId="3" sqref="C2 C5 C9 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13720,7 +14637,7 @@
       <c r="B2" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -13750,7 +14667,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -13766,6 +14683,540 @@
         <v>37</v>
       </c>
       <c r="F4" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13776,7 +15227,7 @@
       <c r="B5" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -13849,12 +15300,12 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="C9" s="15"/>
+        <v>681</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
@@ -13867,14 +15318,712 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>669</v>
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="C10" s="15"/>
+        <v>566</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="15" t="s">
         <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" activeCellId="2" sqref="C2 C9 C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>37</v>
@@ -13920,6 +16069,974 @@
         <v>44</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="86.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="84.5" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14279,6 +17396,1498 @@
         <v>40</v>
       </c>
       <c r="G16" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="85.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2898</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2840</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="15">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6145</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1654</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="9510" windowHeight="11595" tabRatio="655" firstSheet="34" activeTab="43"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="28815" windowHeight="5895" tabRatio="655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <sheet name="VULVAR" sheetId="44" r:id="rId43"/>
     <sheet name="LANGERHANS CELL HISTIOCYTOSIS" sheetId="45" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2549,7 +2549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2613,6 +2613,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3609,7 +3621,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3699,6 +3711,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="927">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4961,24 +4989,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4999,248 +5031,253 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="53">
+        <v>1654</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="53">
+        <v>6158</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="53">
+        <v>899999</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="53">
+        <v>1541</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="53">
+        <v>6145</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="53">
+        <v>2898</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="53">
+        <v>885902</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="53">
+        <v>6835</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="53">
+        <v>15732</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="53">
+        <v>3374</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B13" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C13" s="53">
         <v>5309</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D13" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="15">
-        <v>885902</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16">
-        <v>6835</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="C6" s="42">
-        <v>15732</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="15">
-        <v>899999</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="15">
-        <v>6145</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3374</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2898</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1654</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="15">
-        <v>1541</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>40</v>
+      <c r="E13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F13">
+    <sortCondition ref="E2:E13"/>
+    <sortCondition ref="D2:D13"/>
+    <sortCondition ref="F2:F13"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9063,11 +9100,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9100,243 +9140,248 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="57">
+        <v>899999</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="56" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="58">
+        <v>689684</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="58">
+        <v>706565</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1541</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="59">
+        <v>6145</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="58">
+        <v>6835</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="56" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="58">
+        <v>79693</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="58">
+        <v>15732</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B12" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="58">
+        <v>5235</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C13" s="58">
         <v>873868</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="16">
-        <v>79693</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16">
-        <v>6835</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="C6" s="42">
-        <v>15732</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="16">
-        <v>706565</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="15">
-        <v>899999</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="15">
-        <v>6145</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="16">
-        <v>5235</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="16">
-        <v>689684</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="15">
-        <v>1541</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>40</v>
+      <c r="E13" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F13">
+    <sortCondition ref="E2:E13"/>
+    <sortCondition ref="D2:D13"/>
+    <sortCondition ref="F2:F13"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -13151,12 +13196,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13169,7 +13217,7 @@
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -13189,303 +13237,308 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="57">
+        <v>1654</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="57">
+        <v>6158</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="57">
+        <v>899999</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="57">
+        <v>13674</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="57">
+        <v>2856</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="57">
+        <v>5544</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="57">
+        <v>2840</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="58">
+        <v>2898</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="58">
+        <v>6835</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="58">
+        <v>65189</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="58">
+        <v>15732</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B15" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="57">
+        <v>3394</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C16" s="58">
         <v>1098</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D16" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2898</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="16">
-        <v>65189</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16">
-        <v>6835</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" s="42">
-        <v>15732</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="15">
-        <v>6158</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="15">
-        <v>899999</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="15">
-        <v>5544</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="15">
-        <v>13674</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3394</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="15">
-        <v>2840</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="15">
-        <v>1654</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2856</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>40</v>
+      <c r="E16" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F16">
+    <sortCondition ref="E2:E16"/>
+    <sortCondition ref="D2:D16"/>
+    <sortCondition ref="F2:F16"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -16837,10 +16890,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16854,7 +16907,7 @@
     <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -18470,7 +18523,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -19556,7 +19609,7 @@
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -20851,7 +20904,7 @@
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="28815" windowHeight="5895" tabRatio="655" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="24120" windowHeight="5895" tabRatio="655" firstSheet="34" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId1"/>
@@ -2549,7 +2549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2571,12 +2571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2607,12 +2601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3621,7 +3609,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3675,16 +3663,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3692,12 +3679,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3710,21 +3697,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="926" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5010,7 +4996,7 @@
     <col min="7" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5031,242 +5017,242 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="51">
         <v>1654</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="51">
         <v>6158</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="51">
         <v>899999</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="51">
         <v>1541</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <v>6145</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="51">
         <v>2898</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="53" t="s">
+      <c r="D7" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>885902</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="53" t="s">
+      <c r="D8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>6835</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="53" t="s">
+      <c r="D9" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="53" t="s">
+      <c r="D10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="51" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="51">
         <v>15732</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="53" t="s">
+      <c r="D11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="51" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <v>3374</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="51">
         <v>5309</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5393,7 +5379,7 @@
       <c r="B5" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>340</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -5467,22 +5453,22 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>15732</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5542,7 +5528,7 @@
       <c r="E12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5611,7 +5597,7 @@
       <c r="B16" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>339</v>
       </c>
       <c r="D16" s="15"/>
@@ -5831,7 +5817,7 @@
       <c r="E2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="12"/>
@@ -5984,22 +5970,22 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>15732</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="32" t="s">
+      <c r="D10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="8"/>
@@ -6186,7 +6172,7 @@
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="8"/>
@@ -6249,7 +6235,7 @@
       <c r="E22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="12"/>
@@ -6268,7 +6254,7 @@
       <c r="E23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="12"/>
@@ -6289,7 +6275,7 @@
       <c r="E24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="8"/>
@@ -6505,22 +6491,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>15732</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6578,7 +6564,7 @@
       <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6596,7 +6582,7 @@
       <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6664,7 +6650,7 @@
       <c r="A15" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>796</v>
       </c>
       <c r="C15" s="11"/>
@@ -6710,7 +6696,7 @@
       <c r="E17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7050,7 +7036,7 @@
       <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7449,7 +7435,7 @@
       <c r="E13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7518,7 +7504,7 @@
       <c r="B17" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <v>905020</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -7527,7 +7513,7 @@
       <c r="E17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7827,7 +7813,7 @@
       <c r="E5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7852,22 +7838,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>15732</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7923,7 +7909,7 @@
       <c r="E10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7941,7 +7927,7 @@
       <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7959,7 +7945,7 @@
       <c r="E12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8185,22 +8171,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>15732</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8240,7 +8226,7 @@
       <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8428,22 +8414,22 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>15732</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8483,7 +8469,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8658,7 +8644,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>444</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -8676,7 +8662,7 @@
       <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8756,7 +8742,7 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9003,7 +8989,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9140,239 +9126,239 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="55">
         <v>899999</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="56" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="F2" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="56">
         <v>689684</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="56">
         <v>706565</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="57">
         <v>1541</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="57">
         <v>6145</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="56">
         <v>6835</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="56" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="D8" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="54" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="57" t="s">
+      <c r="D9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="56">
         <v>79693</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="57" t="s">
+      <c r="D10" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>15732</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="57" t="s">
+      <c r="D11" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="56">
         <v>5235</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="57" t="s">
+      <c r="E12" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="56">
         <v>873868</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="57" t="s">
+      <c r="E13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9692,7 +9678,7 @@
       <c r="A15" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>476</v>
       </c>
       <c r="C15" s="16">
@@ -9704,10 +9690,10 @@
       <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>477</v>
       </c>
     </row>
@@ -9774,14 +9760,16 @@
       <c r="B19" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="16">
+        <v>905020</v>
+      </c>
       <c r="D19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10142,7 +10130,7 @@
       <c r="E9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10162,7 +10150,7 @@
       <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10427,7 +10415,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10447,7 +10435,7 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10551,7 +10539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10644,7 +10632,9 @@
       <c r="B5" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="15">
+        <v>13674</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -11165,19 +11155,19 @@
       <c r="A13" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>532</v>
       </c>
       <c r="C13" s="15">
         <v>5202</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11485,7 +11475,7 @@
       <c r="E2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11533,19 +11523,19 @@
       <c r="A5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="15">
         <v>6158</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11879,19 +11869,19 @@
       <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>6835</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="37" t="s">
+      <c r="D9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11951,7 +11941,7 @@
       <c r="E12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12212,7 +12202,7 @@
       <c r="E3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12294,19 +12284,19 @@
       <c r="A8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="15">
         <v>1541</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12595,7 +12585,7 @@
       <c r="E2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12637,19 +12627,19 @@
       <c r="A5" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>611</v>
       </c>
       <c r="C5" s="15">
         <v>13918</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12900,7 +12890,7 @@
       <c r="E2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12920,7 +12910,7 @@
       <c r="E3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12948,19 +12938,19 @@
       <c r="A5" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>611</v>
       </c>
       <c r="C5" s="15">
         <v>13918</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13237,299 +13227,299 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="55">
         <v>1654</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="55">
         <v>6158</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="F3" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="55">
         <v>899999</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="57" t="s">
+      <c r="D4" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="F4" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="55">
         <v>13674</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>2856</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="55">
         <v>5544</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>2840</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="57" t="s">
+      <c r="D9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+    <row r="10" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="56">
         <v>2898</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="D10" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>6835</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="D11" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="57" t="s">
+      <c r="D12" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="56">
         <v>65189</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+    <row r="14" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="56">
         <v>15732</v>
       </c>
-      <c r="D14" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="57" t="s">
+      <c r="D14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="55">
         <v>3394</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="57" t="s">
+      <c r="E15" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="56">
         <v>1098</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="57" t="s">
+      <c r="E16" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13704,40 +13694,40 @@
       <c r="A8" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>650</v>
       </c>
       <c r="C8" s="14">
         <v>15684</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>642</v>
       </c>
     </row>
@@ -13962,7 +13952,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -14165,7 +14155,7 @@
       <c r="E2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14213,19 +14203,19 @@
       <c r="A5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="15">
         <v>1541</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14250,7 +14240,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>661</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -14412,7 +14402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14451,7 +14441,9 @@
       <c r="B2" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="36">
+        <v>5085</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -14481,33 +14473,35 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>6835</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="36">
+        <v>15732</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -14525,7 +14519,7 @@
       <c r="B6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="36">
         <v>6158</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -14545,7 +14539,7 @@
       <c r="B7" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="36">
         <v>899999</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -14554,7 +14548,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14565,7 +14559,7 @@
       <c r="B8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="36">
         <v>6145</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -14585,7 +14579,9 @@
       <c r="B9" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="36">
+        <v>1815</v>
+      </c>
       <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
@@ -14603,7 +14599,9 @@
       <c r="B10" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="36">
+        <v>14298</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -14673,7 +14671,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14712,7 +14710,9 @@
       <c r="B2" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>5940</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -14748,7 +14748,9 @@
       <c r="B4" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="15">
+        <v>105034</v>
+      </c>
       <c r="D4" s="15" t="s">
         <v>161</v>
       </c>
@@ -14760,13 +14762,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>6835</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -14786,7 +14788,9 @@
       <c r="B6" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="15">
+        <v>15732</v>
+      </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
@@ -14833,7 +14837,7 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14864,7 +14868,9 @@
       <c r="B10" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="15">
+        <v>3179</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
@@ -14882,7 +14888,9 @@
       <c r="B11" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="15">
+        <v>14411</v>
+      </c>
       <c r="D11" s="15" t="s">
         <v>161</v>
       </c>
@@ -14952,7 +14960,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14991,7 +14999,9 @@
       <c r="B2" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>6451</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -15021,7 +15031,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -15047,7 +15057,9 @@
       <c r="B5" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15">
+        <v>15732</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -15094,7 +15106,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -15125,7 +15137,9 @@
       <c r="B9" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="15">
+        <v>3540</v>
+      </c>
       <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
@@ -15195,7 +15209,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15234,7 +15248,9 @@
       <c r="B2" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="22">
+        <v>4328</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -15270,7 +15286,9 @@
       <c r="B4" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="22">
+        <v>65326</v>
+      </c>
       <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
@@ -15288,7 +15306,9 @@
       <c r="B5" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="22">
+        <v>682307</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -15306,7 +15326,9 @@
       <c r="B6" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="22">
+        <v>837258</v>
+      </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
@@ -15324,7 +15346,9 @@
       <c r="B7" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="22">
+        <v>15547</v>
+      </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
@@ -15362,7 +15386,9 @@
       <c r="B9" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="22">
+        <v>15469</v>
+      </c>
       <c r="D9" s="15" t="s">
         <v>29</v>
       </c>
@@ -15380,7 +15406,9 @@
       <c r="B10" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="22">
+        <v>15732</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -15398,7 +15426,9 @@
       <c r="B11" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="22">
+        <v>2521</v>
+      </c>
       <c r="D11" s="14" t="s">
         <v>50</v>
       </c>
@@ -15416,7 +15446,9 @@
       <c r="B12" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="22">
+        <v>178904</v>
+      </c>
       <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
@@ -15461,7 +15493,7 @@
       <c r="E14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -15472,7 +15504,9 @@
       <c r="B15" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="15">
+        <v>5117</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>51</v>
       </c>
@@ -15490,7 +15524,9 @@
       <c r="B16" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="15">
+        <v>15458</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>29</v>
       </c>
@@ -15526,7 +15562,9 @@
       <c r="B18" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="15">
+        <v>884327</v>
+      </c>
       <c r="D18" s="14" t="s">
         <v>29</v>
       </c>
@@ -15558,7 +15596,9 @@
       <c r="B20" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="15">
+        <v>3443</v>
+      </c>
       <c r="D20" s="15" t="s">
         <v>33</v>
       </c>
@@ -15576,7 +15616,9 @@
       <c r="B21" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="15">
+        <v>2315</v>
+      </c>
       <c r="D21" s="15" t="s">
         <v>50</v>
       </c>
@@ -15594,7 +15636,9 @@
       <c r="B22" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="15">
+        <v>156297</v>
+      </c>
       <c r="D22" s="14" t="s">
         <v>29</v>
       </c>
@@ -15612,7 +15656,9 @@
       <c r="B23" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="15">
+        <v>5499</v>
+      </c>
       <c r="D23" s="14" t="s">
         <v>391</v>
       </c>
@@ -15630,7 +15676,9 @@
       <c r="B24" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="15">
+        <v>1498</v>
+      </c>
       <c r="D24" s="14" t="s">
         <v>51</v>
       </c>
@@ -15659,9 +15707,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15699,7 +15745,9 @@
       <c r="B2" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>5710</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -15717,7 +15765,9 @@
       <c r="B3" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15">
+        <v>16380</v>
+      </c>
       <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
@@ -15755,7 +15805,9 @@
       <c r="B5" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15">
+        <v>15732</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -15802,7 +15854,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -15831,7 +15883,7 @@
       <c r="B9" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
         <v>86</v>
@@ -15847,7 +15899,9 @@
       <c r="B10" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="15">
+        <v>3290</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
@@ -15917,7 +15971,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15956,7 +16010,9 @@
       <c r="B2" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="14">
+        <v>4590</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -16012,7 +16068,9 @@
       <c r="B5" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="14">
+        <v>93513</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -16030,7 +16088,7 @@
       <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="14">
         <v>6835</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -16050,7 +16108,9 @@
       <c r="B7" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="14">
+        <v>15732</v>
+      </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
@@ -16115,7 +16175,7 @@
       <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16126,7 +16186,9 @@
       <c r="B11" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="14">
+        <v>6439</v>
+      </c>
       <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
@@ -16144,7 +16206,9 @@
       <c r="B12" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="14">
+        <v>13674</v>
+      </c>
       <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
@@ -16176,7 +16240,9 @@
       <c r="B14" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="14">
+        <v>3224</v>
+      </c>
       <c r="D14" s="15" t="s">
         <v>33</v>
       </c>
@@ -16214,7 +16280,7 @@
       <c r="B16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>1654</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -16234,7 +16300,9 @@
       <c r="B17" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="14">
+        <v>1483</v>
+      </c>
       <c r="D17" s="15" t="s">
         <v>51</v>
       </c>
@@ -16264,7 +16332,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16303,7 +16371,9 @@
       <c r="B2" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>5350</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -16359,7 +16429,7 @@
       <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>6835</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -16379,7 +16449,9 @@
       <c r="B6" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="15">
+        <v>15732</v>
+      </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
@@ -16426,7 +16498,7 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16457,7 +16529,9 @@
       <c r="B10" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="15">
+        <v>3483</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
@@ -16547,7 +16621,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16586,7 +16660,9 @@
       <c r="B2" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="14">
+        <v>5188</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -16624,7 +16700,7 @@
       <c r="B4" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
@@ -16642,7 +16718,9 @@
       <c r="B5" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="14">
+        <v>65324</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -16660,7 +16738,7 @@
       <c r="B6" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
@@ -16678,7 +16756,9 @@
       <c r="B7" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="14">
+        <v>15732</v>
+      </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
@@ -16696,7 +16776,7 @@
       <c r="B8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>6158</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -16716,7 +16796,9 @@
       <c r="B9" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="14">
+        <v>860833</v>
+      </c>
       <c r="D9" s="14" t="s">
         <v>29</v>
       </c>
@@ -16734,7 +16816,7 @@
       <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>6145</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -16768,7 +16850,9 @@
       <c r="B12" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="14">
+        <v>3504</v>
+      </c>
       <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
@@ -16806,7 +16890,9 @@
       <c r="B14" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="14">
+        <v>14298</v>
+      </c>
       <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
@@ -16824,7 +16910,7 @@
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1654</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -16844,7 +16930,9 @@
       <c r="B16" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="14">
+        <v>3040</v>
+      </c>
       <c r="D16" s="15" t="s">
         <v>391</v>
       </c>
@@ -16890,10 +16978,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16977,7 +17065,7 @@
       <c r="B4" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>340</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -16998,7 +17086,7 @@
       <c r="B5" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>341</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -17034,22 +17122,22 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>15732</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="15"/>
@@ -17091,7 +17179,7 @@
       <c r="E9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="15"/>
@@ -17145,7 +17233,7 @@
       <c r="B12" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>339</v>
       </c>
       <c r="D12" s="15"/>
@@ -17260,7 +17348,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17299,7 +17387,9 @@
       <c r="B2" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>5927</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -17317,7 +17407,9 @@
       <c r="B3" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15">
+        <v>16380</v>
+      </c>
       <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
@@ -17335,7 +17427,7 @@
       <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <v>6835</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -17355,7 +17447,9 @@
       <c r="B5" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15">
+        <v>15732</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -17402,7 +17496,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -17433,7 +17527,9 @@
       <c r="B9" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15">
+        <v>3741</v>
+      </c>
       <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
@@ -17503,13 +17599,13 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
-    <col min="2" max="2" width="79.875" customWidth="1"/>
+    <col min="2" max="2" width="92.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
@@ -17542,7 +17638,9 @@
       <c r="B2" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="22">
+        <v>4609</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -17560,7 +17658,9 @@
       <c r="B3" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="22">
+        <v>4306</v>
+      </c>
       <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
@@ -17614,7 +17714,9 @@
       <c r="B6" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="22">
+        <v>676217</v>
+      </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
@@ -17652,7 +17754,9 @@
       <c r="B8" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="22">
+        <v>15732</v>
+      </c>
       <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
@@ -17670,7 +17774,9 @@
       <c r="B9" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="22">
+        <v>4873</v>
+      </c>
       <c r="D9" s="14" t="s">
         <v>50</v>
       </c>
@@ -17706,7 +17812,9 @@
       <c r="B11" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="22">
+        <v>14676</v>
+      </c>
       <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
@@ -17724,7 +17832,9 @@
       <c r="B12" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15">
+        <v>13986</v>
+      </c>
       <c r="D12" s="15" t="s">
         <v>29</v>
       </c>
@@ -17742,7 +17852,9 @@
       <c r="B13" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="22">
+        <v>4885</v>
+      </c>
       <c r="D13" s="15" t="s">
         <v>51</v>
       </c>
@@ -17760,7 +17872,9 @@
       <c r="B14" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="22">
+        <v>13674</v>
+      </c>
       <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
@@ -17792,7 +17906,9 @@
       <c r="B16" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="22">
+        <v>3965</v>
+      </c>
       <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
@@ -17810,7 +17926,9 @@
       <c r="B17" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="22">
+        <v>3306</v>
+      </c>
       <c r="D17" s="15" t="s">
         <v>33</v>
       </c>
@@ -17828,7 +17946,9 @@
       <c r="B18" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="22">
+        <v>2176</v>
+      </c>
       <c r="D18" s="15" t="s">
         <v>50</v>
       </c>
@@ -17846,7 +17966,9 @@
       <c r="B19" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="22">
+        <v>2107</v>
+      </c>
       <c r="D19" s="15" t="s">
         <v>778</v>
       </c>
@@ -17876,7 +17998,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17915,7 +18037,9 @@
       <c r="B2" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>5268</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -17933,7 +18057,7 @@
       <c r="B3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>2898</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -17953,7 +18077,9 @@
       <c r="B4" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="15">
+        <v>16380</v>
+      </c>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
@@ -17971,7 +18097,9 @@
       <c r="B5" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15">
+        <v>105038</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -17989,7 +18117,7 @@
       <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <v>6835</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -18009,7 +18137,9 @@
       <c r="B7" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="15">
+        <v>14411</v>
+      </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
@@ -18027,7 +18157,9 @@
       <c r="B8" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="15">
+        <v>15732</v>
+      </c>
       <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
@@ -18092,7 +18224,7 @@
       <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -18123,7 +18255,9 @@
       <c r="B13" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="15">
+        <v>3073</v>
+      </c>
       <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
@@ -18141,7 +18275,7 @@
       <c r="B14" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>2840</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -18181,7 +18315,9 @@
       <c r="B16" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="15">
+        <v>14362</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>29</v>
       </c>
@@ -18231,13 +18367,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="2" width="70.125" customWidth="1"/>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
@@ -18270,7 +18406,9 @@
       <c r="B2" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>5883</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -18288,7 +18426,9 @@
       <c r="B3" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15">
+        <v>16380</v>
+      </c>
       <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
@@ -18306,7 +18446,9 @@
       <c r="B4" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="15">
+        <v>99815</v>
+      </c>
       <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
@@ -18324,7 +18466,7 @@
       <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>6835</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -18344,7 +18486,9 @@
       <c r="B6" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="15">
+        <v>14411</v>
+      </c>
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
@@ -18362,7 +18506,9 @@
       <c r="B7" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="15">
+        <v>15732</v>
+      </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
@@ -18409,7 +18555,7 @@
       <c r="E9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -18454,7 +18600,9 @@
       <c r="B12" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="15">
+        <v>2997</v>
+      </c>
       <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
@@ -18524,7 +18672,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18563,7 +18711,9 @@
       <c r="B2" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15">
+        <v>6545</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
@@ -18581,7 +18731,9 @@
       <c r="B3" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15">
+        <v>16380</v>
+      </c>
       <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
@@ -18599,7 +18751,7 @@
       <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <v>6835</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -18619,7 +18771,9 @@
       <c r="B5" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15">
+        <v>15732</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
@@ -18666,7 +18820,7 @@
       <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -18697,7 +18851,9 @@
       <c r="B9" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="15">
+        <v>6569</v>
+      </c>
       <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
@@ -18766,7 +18922,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18815,7 +18971,7 @@
       <c r="E2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -18835,7 +18991,7 @@
       <c r="E3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -19645,7 +19801,7 @@
       <c r="E2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -19654,7 +19810,7 @@
       <c r="B3" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>339</v>
       </c>
       <c r="D3" s="14"/>
@@ -19672,7 +19828,7 @@
       <c r="B4" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>337</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -19681,7 +19837,7 @@
       <c r="E4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -19692,7 +19848,7 @@
       <c r="B5" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>335</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -20181,7 +20337,7 @@
       <c r="E29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20232,7 +20388,7 @@
       <c r="B32" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>334</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -20252,7 +20408,7 @@
       <c r="B33" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="40" t="s">
         <v>338</v>
       </c>
       <c r="D33" s="15" t="s">
@@ -20272,7 +20428,7 @@
       <c r="B34" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="40" t="s">
         <v>340</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -20299,7 +20455,7 @@
       <c r="E35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20411,7 +20567,7 @@
       <c r="B4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>340</v>
       </c>
       <c r="D4" t="s">
@@ -20425,22 +20581,22 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>15732</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -20480,7 +20636,7 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20681,7 +20837,7 @@
       <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>340</v>
       </c>
       <c r="D4" t="s">
@@ -20715,22 +20871,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>15732</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -20770,7 +20926,7 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20938,7 +21094,7 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20956,7 +21112,7 @@
       <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20974,7 +21130,7 @@
       <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20994,7 +21150,7 @@
       <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -21003,7 +21159,7 @@
       <c r="B6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>339</v>
       </c>
       <c r="E6" t="s">
@@ -21420,7 +21576,7 @@
       <c r="B27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>341</v>
       </c>
       <c r="D27" t="s">
@@ -21440,7 +21596,7 @@
       <c r="B28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>340</v>
       </c>
       <c r="D28" t="s">
@@ -21460,7 +21616,7 @@
       <c r="B29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>346</v>
       </c>
       <c r="D29" t="s">
@@ -21480,7 +21636,7 @@
       <c r="B30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>345</v>
       </c>
       <c r="D30" t="s">
@@ -21500,7 +21656,7 @@
       <c r="B31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>344</v>
       </c>
       <c r="D31" t="s">
@@ -21520,7 +21676,7 @@
       <c r="B32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>342</v>
       </c>
       <c r="D32" t="s">
@@ -21540,7 +21696,7 @@
       <c r="B33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>343</v>
       </c>
       <c r="D33" t="s">

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-15" windowWidth="23730" windowHeight="5895" tabRatio="655" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="45" yWindow="-15" windowWidth="23730" windowHeight="5895" tabRatio="655"/>
   </bookViews>
   <sheets>
     <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <sheet name="VULVAR" sheetId="44" r:id="rId43"/>
     <sheet name="LANGERHANS CELL HISTIOCYTOSIS" sheetId="45" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="797">
   <si>
     <t>Title</t>
   </si>
@@ -2472,6 +2472,9 @@
   </si>
   <si>
     <t>http://www.cdc.gov/cancer/nbccedp/index.htm</t>
+  </si>
+  <si>
+    <t>Spanish Content ID</t>
   </si>
 </sst>
 </file>
@@ -4996,11 +4999,11 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5008,13 +5011,14 @@
     <col min="1" max="1" width="41.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="48.375" style="2"/>
+    <col min="4" max="4" width="22.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5025,16 +5029,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>63</v>
       </c>
@@ -5044,17 +5051,18 @@
       <c r="C2" s="42">
         <v>1654</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D2" s="42"/>
       <c r="E2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>63</v>
       </c>
@@ -5064,17 +5072,18 @@
       <c r="C3" s="42">
         <v>6158</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D3" s="42"/>
       <c r="E3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>64</v>
       </c>
@@ -5084,17 +5093,18 @@
       <c r="C4" s="42">
         <v>899999</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>85</v>
       </c>
@@ -5104,17 +5114,18 @@
       <c r="C5" s="42">
         <v>1541</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D5" s="42"/>
       <c r="E5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>85</v>
       </c>
@@ -5124,17 +5135,18 @@
       <c r="C6" s="42">
         <v>6145</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D6" s="42"/>
       <c r="E6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>2</v>
       </c>
@@ -5144,17 +5156,18 @@
       <c r="C7" s="42">
         <v>2898</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D7" s="42"/>
       <c r="E7" s="42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>2</v>
       </c>
@@ -5164,17 +5177,18 @@
       <c r="C8" s="42">
         <v>885902</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D8" s="42"/>
       <c r="E8" s="42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>5</v>
       </c>
@@ -5184,17 +5198,18 @@
       <c r="C9" s="42">
         <v>6835</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>60</v>
       </c>
@@ -5204,17 +5219,18 @@
       <c r="C10" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D10" s="43"/>
       <c r="E10" s="42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>6</v>
       </c>
@@ -5224,17 +5240,18 @@
       <c r="C11" s="42">
         <v>15732</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="42"/>
       <c r="E11" s="42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>58</v>
       </c>
@@ -5244,17 +5261,18 @@
       <c r="C12" s="42">
         <v>3374</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>55</v>
       </c>
@@ -5264,21 +5282,22 @@
       <c r="C13" s="42">
         <v>5309</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F13">
+  <sortState ref="A2:G13">
+    <sortCondition ref="F2:F13"/>
     <sortCondition ref="E2:E13"/>
-    <sortCondition ref="D2:D13"/>
-    <sortCondition ref="F2:F13"/>
+    <sortCondition ref="G2:G13"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -5313,7 +5332,7 @@
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6392,7 +6411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-15" windowWidth="23745" windowHeight="5895" tabRatio="863" firstSheet="26" activeTab="28"/>
+    <workbookView xWindow="45" yWindow="-15" windowWidth="23745" windowHeight="5895" tabRatio="863" firstSheet="25" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="BREAST" sheetId="10" r:id="rId1"/>
@@ -12,30 +12,30 @@
     <sheet name="GALLBLADDER" sheetId="23" r:id="rId3"/>
     <sheet name="LEUKEMIA" sheetId="5" r:id="rId4"/>
     <sheet name="LUNG" sheetId="1" r:id="rId5"/>
-    <sheet name="PANCREATIC" sheetId="28" r:id="rId6"/>
-    <sheet name="STOMACH (GASTRIC)" sheetId="24" r:id="rId7"/>
-    <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId8"/>
-    <sheet name="ANAL" sheetId="3" r:id="rId9"/>
-    <sheet name="BLADDER" sheetId="8" r:id="rId10"/>
-    <sheet name="BONE" sheetId="9" r:id="rId11"/>
-    <sheet name="BRAIN" sheetId="6" r:id="rId12"/>
-    <sheet name="CARCINOMA OF UNKNOWN PRIMARY" sheetId="11" r:id="rId13"/>
-    <sheet name="GI CARCINOID TUMOR" sheetId="4" r:id="rId14"/>
-    <sheet name="LIVER &amp; BILE DUCT" sheetId="7" r:id="rId15"/>
-    <sheet name="MYELOPROLIFERATIVE NEOPLASMS" sheetId="13" r:id="rId16"/>
-    <sheet name="COLORECTAL" sheetId="14" r:id="rId17"/>
-    <sheet name="ESOPHAGEAL" sheetId="15" r:id="rId18"/>
-    <sheet name="EXTRACRANIAL GERM CELL TUMOR" sheetId="16" r:id="rId19"/>
-    <sheet name="EXTRAGONADAL GERM CELL TUMOR" sheetId="17" r:id="rId20"/>
-    <sheet name="RETINOBLASTOMA" sheetId="18" r:id="rId21"/>
-    <sheet name="INTRAOCULAR MELANOMA" sheetId="19" r:id="rId22"/>
-    <sheet name="SKIN" sheetId="20" r:id="rId23"/>
-    <sheet name="MALIGNANT MESOTHELIOMA" sheetId="22" r:id="rId24"/>
-    <sheet name="SOFT TISSUE SARCOMA" sheetId="25" r:id="rId25"/>
-    <sheet name="GESTATIONAL TROPHOBLASTIC" sheetId="26" r:id="rId26"/>
-    <sheet name="KIDNEY" sheetId="27" r:id="rId27"/>
-    <sheet name="MULTIPLE MYELOMA" sheetId="29" r:id="rId28"/>
-    <sheet name="NEUROBLASTOMA" sheetId="30" r:id="rId29"/>
+    <sheet name="NEUROBLASTOMA" sheetId="30" r:id="rId6"/>
+    <sheet name="PANCREATIC" sheetId="28" r:id="rId7"/>
+    <sheet name="STOMACH (GASTRIC)" sheetId="24" r:id="rId8"/>
+    <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId9"/>
+    <sheet name="ANAL" sheetId="3" r:id="rId10"/>
+    <sheet name="BLADDER" sheetId="8" r:id="rId11"/>
+    <sheet name="BONE" sheetId="9" r:id="rId12"/>
+    <sheet name="BRAIN" sheetId="6" r:id="rId13"/>
+    <sheet name="CARCINOMA OF UNKNOWN PRIMARY" sheetId="11" r:id="rId14"/>
+    <sheet name="GI CARCINOID TUMOR" sheetId="4" r:id="rId15"/>
+    <sheet name="LIVER &amp; BILE DUCT" sheetId="7" r:id="rId16"/>
+    <sheet name="MYELOPROLIFERATIVE NEOPLASMS" sheetId="13" r:id="rId17"/>
+    <sheet name="COLORECTAL" sheetId="14" r:id="rId18"/>
+    <sheet name="ESOPHAGEAL" sheetId="15" r:id="rId19"/>
+    <sheet name="EXTRACRANIAL GERM CELL TUMOR" sheetId="16" r:id="rId20"/>
+    <sheet name="EXTRAGONADAL GERM CELL TUMOR" sheetId="17" r:id="rId21"/>
+    <sheet name="RETINOBLASTOMA" sheetId="18" r:id="rId22"/>
+    <sheet name="INTRAOCULAR MELANOMA" sheetId="19" r:id="rId23"/>
+    <sheet name="SKIN" sheetId="20" r:id="rId24"/>
+    <sheet name="MALIGNANT MESOTHELIOMA" sheetId="22" r:id="rId25"/>
+    <sheet name="SOFT TISSUE SARCOMA" sheetId="25" r:id="rId26"/>
+    <sheet name="GESTATIONAL TROPHOBLASTIC" sheetId="26" r:id="rId27"/>
+    <sheet name="KIDNEY" sheetId="27" r:id="rId28"/>
+    <sheet name="MULTIPLE MYELOMA" sheetId="29" r:id="rId29"/>
     <sheet name="OVARIAN" sheetId="31" r:id="rId30"/>
     <sheet name="PHEOCHROMOCYTOMA" sheetId="32" r:id="rId31"/>
     <sheet name="PARATHYROID" sheetId="33" r:id="rId32"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="845">
   <si>
     <t>Title</t>
   </si>
@@ -6736,6 +6736,300 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="37">
+        <v>899999</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="38">
+        <v>689684</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="38">
+        <v>706565</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1541</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="39">
+        <v>6145</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>14152</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="38">
+        <v>79693</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="38">
+        <v>15732</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="38">
+        <v>5235</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="38">
+        <v>873868</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F13">
+    <sortCondition ref="E2:E13"/>
+    <sortCondition ref="D2:D13"/>
+    <sortCondition ref="F2:F13"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -7086,7 +7380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -7460,7 +7754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -8116,7 +8410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -8402,7 +8696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -8700,7 +8994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -9195,7 +9489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -9562,7 +9856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -10107,7 +10401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -10505,238 +10799,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="2" max="2" width="56.25" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>14152</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="C3" s="40">
-        <v>15732</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="40">
-        <v>2599</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="39">
-        <v>2538</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="39">
-        <v>6158</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" s="39">
-        <v>899999</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="39">
-        <v>1654</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="39">
-        <v>6145</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="39">
-        <v>1541</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11215,6 +11277,238 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="56.25" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>14152</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="40">
+        <v>15732</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="40">
+        <v>2599</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="39">
+        <v>2538</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="39">
+        <v>6158</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="39">
+        <v>899999</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1654</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="39">
+        <v>6145</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1541</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11459,7 +11753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -11735,7 +12029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -11983,7 +12277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -12552,7 +12846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -12880,7 +13174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -13410,7 +13704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -13680,7 +13974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -14124,7 +14418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -14133,7 +14427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14428,355 +14722,6 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.25" customWidth="1"/>
-    <col min="2" max="2" width="76.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="C2" s="11">
-        <v>899999</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="11">
-        <v>6158</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1654</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C5" s="11">
-        <v>13674</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1929</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2497</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="C8" s="11">
-        <v>89698</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9" s="11">
-        <v>13918</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>14152</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="11">
-        <v>15732</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="11">
-        <v>210432</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1771</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C16" s="11">
-        <v>5031</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:F16">
-    <sortCondition ref="B2:B16"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15049,7 +14994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
@@ -22788,6 +22733,355 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.25" customWidth="1"/>
+    <col min="2" max="2" width="68.125" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="39">
+        <v>899999</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="39">
+        <v>6158</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="39">
+        <v>1654</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="39">
+        <v>13674</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1929</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2497</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="C8" s="39">
+        <v>89698</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="39">
+        <v>13918</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="76">
+        <v>14152</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="39">
+        <v>15732</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="39">
+        <v>210432</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1771</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" s="39">
+        <v>5031</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F16">
+    <sortCondition ref="B2:B16"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23187,7 +23481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -23551,7 +23845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -23864,298 +24158,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="37">
-        <v>899999</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="38">
-        <v>689684</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="38">
-        <v>706565</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="39">
-        <v>1541</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="39">
-        <v>6145</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>14152</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="38">
-        <v>79693</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="38">
-        <v>15732</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="38">
-        <v>5235</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="38">
-        <v>873868</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:F13">
-    <sortCondition ref="E2:E13"/>
-    <sortCondition ref="D2:D13"/>
-    <sortCondition ref="F2:F13"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24120" windowHeight="13560" tabRatio="863" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="735" yWindow="2310" windowWidth="24120" windowHeight="13560" tabRatio="863"/>
   </bookViews>
   <sheets>
     <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="855">
   <si>
     <t>Title</t>
   </si>
@@ -4435,7 +4435,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4565,15 +4565,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4588,6 +4579,8 @@
     <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1137">
     <cellStyle name="20% - Accent1" xfId="1049" builtinId="30" customBuiltin="1"/>
@@ -6065,319 +6058,319 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B24:B25"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="48.375" style="2"/>
+    <col min="1" max="1" width="19.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="48.375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="28">
+        <v>6158</v>
+      </c>
+      <c r="D2" s="82">
+        <v>411288</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="28">
+        <v>899999</v>
+      </c>
+      <c r="D3">
+        <v>916945</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C4" s="28">
         <v>1654</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D4" s="82">
         <v>411309</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="E4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G4" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="21">
-        <v>6158</v>
-      </c>
-      <c r="D3" s="75">
-        <v>411288</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="21">
-        <v>899999</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>850</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="28">
+        <v>6145</v>
+      </c>
+      <c r="D5" s="82">
+        <v>411225</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C6" s="28">
         <v>1541</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D6" s="82">
         <v>411248</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G6" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="21">
-        <v>6145</v>
-      </c>
-      <c r="D6" s="75">
-        <v>411225</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="28">
         <v>2840</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="82">
         <v>9022</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="28">
         <v>2898</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="82">
         <v>9935</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="E8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="53">
         <v>14152</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="82">
         <v>392398</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>851</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="E10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="28">
         <v>15732</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="82">
         <v>15505</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="28">
         <v>3374</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="82">
         <v>8284</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="28">
         <v>5309</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="82">
         <v>10559</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6647,7 +6640,7 @@
       <c r="C11" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="78" t="s">
         <v>853</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -6670,7 +6663,7 @@
       <c r="C12" s="50">
         <v>915365</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -6693,7 +6686,7 @@
       <c r="C13" s="50">
         <v>916035</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -6887,7 +6880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
@@ -6939,7 +6932,7 @@
       <c r="C4" s="21">
         <v>2599</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="50" t="s">
         <v>33</v>
       </c>
@@ -6971,7 +6964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>61</v>
       </c>
@@ -6992,7 +6985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
@@ -7002,7 +6995,7 @@
       <c r="C7" s="20">
         <v>899999</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E7" s="20" t="s">
@@ -7036,7 +7029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>83</v>
       </c>
@@ -7057,7 +7050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>83</v>
       </c>
@@ -7814,7 +7807,7 @@
       <c r="C7" s="20">
         <v>81827</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="80" t="s">
         <v>852</v>
       </c>
       <c r="E7" s="20" t="s">
@@ -7971,7 +7964,7 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9531,7 +9524,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -10232,9 +10225,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10248,7 +10241,7 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10281,8 +10274,8 @@
       <c r="C2" s="18">
         <v>899999</v>
       </c>
-      <c r="D2" s="76" t="s">
-        <v>850</v>
+      <c r="D2">
+        <v>916945</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>29</v>
@@ -10304,7 +10297,7 @@
       <c r="C3" s="19">
         <v>689684</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="75">
         <v>781754</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -10327,7 +10320,7 @@
       <c r="C4" s="19">
         <v>706565</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="75">
         <v>781764</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -10350,7 +10343,7 @@
       <c r="C5" s="20">
         <v>1541</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="75">
         <v>411248</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -10373,7 +10366,7 @@
       <c r="C6" s="20">
         <v>6145</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="75">
         <v>411225</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -10394,7 +10387,7 @@
       <c r="C7" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="76" t="s">
         <v>851</v>
       </c>
       <c r="E7" s="20"/>
@@ -10415,7 +10408,7 @@
       <c r="C8" s="50">
         <v>14152</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="75">
         <v>392398</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -10438,7 +10431,7 @@
       <c r="C9" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="76" t="s">
         <v>851</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -10461,7 +10454,7 @@
       <c r="C10" s="19">
         <v>79693</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="76" t="s">
         <v>852</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -10484,7 +10477,7 @@
       <c r="C11" s="19">
         <v>15732</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="75">
         <v>15505</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -10507,7 +10500,7 @@
       <c r="C12" s="19">
         <v>5235</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="75">
         <v>7459</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -10530,7 +10523,7 @@
       <c r="C13" s="19">
         <v>873868</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="75">
         <v>9152</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -15012,384 +15005,385 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="24">
         <v>1654</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="81">
         <v>411309</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="24">
         <v>6158</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="81">
         <v>411288</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="G3" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="24">
         <v>899999</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>850</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="D4">
+        <v>916945</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="G4" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="24">
         <v>13674</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="81">
         <v>14745</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="24">
         <v>2856</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="81">
         <v>640833</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="24">
         <v>5544</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="81">
         <v>640806</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="76" t="s">
         <v>851</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="24">
         <v>2840</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="81">
         <v>9022</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="24">
         <v>2898</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="81">
         <v>9935</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="E10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="53">
         <v>14152</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="81">
         <v>392398</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="E11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="76" t="s">
         <v>851</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="24">
         <v>65189</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="76" t="s">
         <v>852</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="24">
         <v>15732</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="81">
         <v>15505</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="E14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="24">
         <v>3394</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="81">
         <v>8306</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="24">
         <v>1098</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="81">
         <v>9659</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -19382,7 +19376,7 @@
     <col min="8" max="8" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -23731,7 +23725,7 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -23806,7 +23800,7 @@
       <c r="C4" s="18">
         <v>899999</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -24070,7 +24064,7 @@
       <c r="C2" s="28">
         <v>899999</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E2" s="28" t="s">
@@ -24093,7 +24087,7 @@
       <c r="C3" s="50">
         <v>915359</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -24116,7 +24110,7 @@
       <c r="C4" s="50">
         <v>915358</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E4" s="28" t="s">
@@ -24739,7 +24733,7 @@
       <c r="C5" s="40">
         <v>65316</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="76" t="s">
         <v>852</v>
       </c>
       <c r="E5" s="40" t="s">
@@ -24957,7 +24951,7 @@
       <c r="C15" s="40">
         <v>899999</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="77" t="s">
         <v>850</v>
       </c>
       <c r="E15" s="40" t="s">

--- a/Daisy-xls/IA/CTHP-Cards.xlsx
+++ b/Daisy-xls/IA/CTHP-Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2310" windowWidth="24120" windowHeight="13560" tabRatio="863"/>
+    <workbookView xWindow="735" yWindow="2370" windowWidth="24120" windowHeight="13500" tabRatio="863" firstSheet="26" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="858">
   <si>
     <t>Title</t>
   </si>
@@ -2652,6 +2652,15 @@
   </si>
   <si>
     <t>Site is also in Spanish</t>
+  </si>
+  <si>
+    <t>Not in Percussion</t>
+  </si>
+  <si>
+    <t>Check Spanish version</t>
+  </si>
+  <si>
+    <t>Do we have anything like this? X</t>
   </si>
 </sst>
 </file>
@@ -6058,7 +6067,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5:D6"/>
     </sheetView>
@@ -9256,7 +9265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9522,24 +9531,24 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.125" customWidth="1"/>
     <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -9550,16 +9559,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>529</v>
       </c>
@@ -9569,17 +9581,20 @@
       <c r="C2" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>29</v>
+      <c r="D2" s="72" t="s">
+        <v>851</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>530</v>
       </c>
@@ -9589,17 +9604,20 @@
       <c r="C3" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>29</v>
+      <c r="D3" s="72" t="s">
+        <v>851</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>534</v>
       </c>
@@ -9609,17 +9627,20 @@
       <c r="C4" s="20">
         <v>65323</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>29</v>
+      <c r="D4" s="72" t="s">
+        <v>852</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>535</v>
       </c>
@@ -9629,17 +9650,20 @@
       <c r="C5" s="20">
         <v>99821</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>29</v>
+      <c r="D5" s="72" t="s">
+        <v>852</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>5</v>
       </c>
@@ -9649,17 +9673,18 @@
       <c r="C6" s="50">
         <v>14152</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="D6" s="50"/>
       <c r="E6" s="58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
@@ -9669,17 +9694,18 @@
       <c r="C7" s="20">
         <v>15732</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>538</v>
       </c>
@@ -9689,17 +9715,18 @@
       <c r="C8" s="20">
         <v>14999</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>520</v>
       </c>
@@ -9709,17 +9736,18 @@
       <c r="C9" s="20">
         <v>5426</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>524</v>
       </c>
@@ -9729,17 +9757,18 @@
       <c r="C10" s="20">
         <v>5678</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>527</v>
       </c>
@@ -9749,17 +9778,18 @@
       <c r="C11" s="20">
         <v>5870</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>520</v>
       </c>
@@ -9769,17 +9799,18 @@
       <c r="C12" s="20">
         <v>3114</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>524</v>
       </c>
@@ -9789,17 +9820,18 @@
       <c r="C13" s="20">
         <v>3947</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>527</v>
       </c>
@@ -9809,17 +9841,18 @@
       <c r="C14" s="20">
         <v>1834</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>61</v>
       </c>
@@ -9829,17 +9862,18 @@
       <c r="C15" s="20">
         <v>6158</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D15" s="20"/>
       <c r="E15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G15" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>62</v>
       </c>
@@ -9850,16 +9884,19 @@
         <v>899999</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>29</v>
+        <v>855</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G16" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
@@ -9869,17 +9906,18 @@
       <c r="C17" s="20">
         <v>1654</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>83</v>
       </c>
@@ -9889,17 +9927,18 @@
       <c r="C18" s="20">
         <v>6145</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D18" s="20"/>
       <c r="E18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>83</v>
       </c>
@@ -9909,17 +9948,18 @@
       <c r="C19" s="20">
         <v>1541</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D19" s="20"/>
       <c r="E19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="G19" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>541</v>
@@ -9927,15 +9967,18 @@
       <c r="C20" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="72" t="s">
+        <v>851</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="G20" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>540</v>
       </c>
@@ -9945,13 +9988,14 @@
       <c r="C21" s="20">
         <v>657735</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9971,10 +10015,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9982,12 +10026,13 @@
     <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -9998,16 +10043,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="68" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="G1" s="68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>61</v>
       </c>
@@ -10017,17 +10065,18 @@
       <c r="C2" s="20">
         <v>6158</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>62</v>
       </c>
@@ -10037,17 +10086,18 @@
       <c r="C3" s="20">
         <v>899999</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>61</v>
       </c>
@@ -10057,17 +10107,18 @@
       <c r="C4" s="20">
         <v>1654</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>83</v>
       </c>
@@ -10077,17 +10128,18 @@
       <c r="C5" s="20">
         <v>6145</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D5" s="20"/>
       <c r="E5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>83</v>
       </c>
@@ -10097,17 +10149,18 @@
       <c r="C6" s="20">
         <v>1541</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>609</v>
       </c>
@@ -10117,17 +10170,20 @@
       <c r="C7" s="20">
         <v>16380</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>29</v>
+      <c r="D7" s="72" t="s">
+        <v>852</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>5</v>
       </c>
@@ -10137,17 +10193,18 @@
       <c r="C8" s="50">
         <v>14152</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>29</v>
-      </c>
+      <c r="D8" s="50"/>
       <c r="E8" s="57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -10157,17 +10214,18 @@
       <c r="C9" s="20">
         <v>15732</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>746</v>
       </c>
@@ -10177,17 +10235,18 @@
       <c r="C10" s="20">
         <v>6545</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>746</v>
       </c>
@@ -10197,13 +10256,14 @@
       <c r="C11" s="20">
         <v>6569</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10557,12 +10617,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A33" sqref="A33"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10570,13 +10630,14 @@
     <col min="1" max="1" width="39.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="4"/>
+    <col min="4" max="4" width="22.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1058